--- a/excel_reports/Rhee_Cano.xlsx
+++ b/excel_reports/Rhee_Cano.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13056" uniqueCount="3135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13013" uniqueCount="3125">
   <si>
     <t>Policy Record</t>
   </si>
@@ -8990,21 +8990,6 @@
     <t>PrimeStar® Access</t>
   </si>
   <si>
-    <t>3907342116</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Seifert</t>
-  </si>
-  <si>
-    <t>PrimeStar® Value</t>
-  </si>
-  <si>
-    <t>11-15-2022</t>
-  </si>
-  <si>
     <t>3172361648</t>
   </si>
   <si>
@@ -9021,21 +9006,6 @@
   </si>
   <si>
     <t>3172133414</t>
-  </si>
-  <si>
-    <t>3172133422</t>
-  </si>
-  <si>
-    <t>11-30-2022</t>
-  </si>
-  <si>
-    <t>switched to Ameritas</t>
-  </si>
-  <si>
-    <t>3356736096</t>
-  </si>
-  <si>
-    <t>10-18-2022</t>
   </si>
   <si>
     <t>3172447264</t>
@@ -9832,12 +9802,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>3105</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>3106</v>
+        <v>3096</v>
       </c>
       <c r="B2" s="2">
         <v>542</v>
@@ -9845,7 +9815,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>3107</v>
+        <v>3097</v>
       </c>
       <c r="B3" s="2">
         <v>635</v>
@@ -9853,18 +9823,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>3108</v>
+        <v>3098</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3109</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>3110</v>
+        <v>3100</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -9873,7 +9843,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>3111</v>
+        <v>3101</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -9881,30 +9851,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>3112</v>
+        <v>3102</v>
       </c>
       <c r="B7" s="2">
         <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3113</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>3114</v>
+        <v>3104</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3115</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>3116</v>
+        <v>3106</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -9913,12 +9883,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>3117</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>3118</v>
+        <v>3108</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
@@ -9926,7 +9896,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>3119</v>
+        <v>3109</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -9934,20 +9904,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>3120</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>3121</v>
+        <v>3111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3134</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>3122</v>
+        <v>3112</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -9956,12 +9926,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>3123</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>3124</v>
+        <v>3114</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -9969,15 +9939,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>3125</v>
+        <v>3115</v>
       </c>
       <c r="B21">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>3126</v>
+        <v>3116</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -9985,7 +9955,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>3127</v>
+        <v>3117</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -9994,7 +9964,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>3128</v>
+        <v>3118</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -10003,7 +9973,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>3129</v>
+        <v>3119</v>
       </c>
       <c r="B26">
         <v>11</v>
@@ -10011,7 +9981,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>3130</v>
+        <v>3120</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -10019,7 +9989,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>3131</v>
+        <v>3121</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -10027,7 +9997,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>3132</v>
+        <v>3122</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -10036,7 +10006,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>3133</v>
+        <v>3123</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -50530,7 +50500,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T129"/>
+  <dimension ref="A1:T124"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -50935,7 +50905,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
         <v>2988</v>
       </c>
@@ -50979,24 +50949,24 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
         <v>2990</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>364</v>
+        <v>487</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>365</v>
+        <v>488</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>366</v>
+        <v>489</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>2991</v>
+        <v>97</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>2992</v>
+        <v>98</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>97</v>
@@ -51008,7 +50978,7 @@
         <v>2975</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>2993</v>
+        <v>2976</v>
       </c>
       <c r="K20" t="s">
         <v>2977</v>
@@ -51017,24 +50987,24 @@
         <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>2994</v>
+        <v>449</v>
       </c>
       <c r="N20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
-        <v>2995</v>
+        <v>2991</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>97</v>
@@ -51052,7 +51022,7 @@
         <v>2975</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>2976</v>
+        <v>2989</v>
       </c>
       <c r="K22" t="s">
         <v>2977</v>
@@ -51061,24 +51031,24 @@
         <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="N22" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
-        <v>2996</v>
+        <v>2992</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>511</v>
+        <v>268</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>512</v>
+        <v>562</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>97</v>
@@ -51096,7 +51066,7 @@
         <v>2975</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>2989</v>
+        <v>2976</v>
       </c>
       <c r="K24" t="s">
         <v>2977</v>
@@ -51105,24 +51075,24 @@
         <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>438</v>
+        <v>2993</v>
       </c>
       <c r="N24" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>268</v>
+        <v>141</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>97</v>
@@ -51137,10 +51107,7 @@
         <v>98</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>2976</v>
+        <v>106</v>
       </c>
       <c r="K26" t="s">
         <v>2977</v>
@@ -51149,24 +51116,24 @@
         <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>2998</v>
+        <v>1002</v>
       </c>
       <c r="N26" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
-        <v>3000</v>
+        <v>2996</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>593</v>
+        <v>653</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>141</v>
+        <v>654</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>594</v>
+        <v>655</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>97</v>
@@ -51181,7 +51148,10 @@
         <v>98</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>106</v>
+        <v>2975</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>2997</v>
       </c>
       <c r="K28" t="s">
         <v>2977</v>
@@ -51190,24 +51160,24 @@
         <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>1002</v>
+        <v>2998</v>
       </c>
       <c r="N28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>3001</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>234</v>
-      </c>
       <c r="D30" s="8" t="s">
-        <v>639</v>
+        <v>3002</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>97</v>
@@ -51222,2200 +51192,2065 @@
         <v>98</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>106</v>
+        <v>2975</v>
       </c>
       <c r="K30" t="s">
         <v>2977</v>
       </c>
       <c r="L30" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>333</v>
+        <v>1260</v>
       </c>
       <c r="N30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" t="s">
+        <v>3004</v>
+      </c>
+      <c r="N32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K34" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L34" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" t="s">
+        <v>3004</v>
+      </c>
+      <c r="N34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="7" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>2984</v>
+      </c>
+      <c r="K36" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L36" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" t="s">
+        <v>704</v>
+      </c>
+      <c r="N36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="7" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L38" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="7" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K40" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" t="s">
+        <v>3009</v>
+      </c>
+      <c r="N40" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="7" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K42" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1127</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="7" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>2997</v>
+      </c>
+      <c r="K44" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L44" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" t="s">
+        <v>827</v>
+      </c>
+      <c r="N44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="7" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L46" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" t="s">
+        <v>3013</v>
+      </c>
+      <c r="N46" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="7" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K48" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L48" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" t="s">
+        <v>420</v>
+      </c>
+      <c r="N48" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="7" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>3018</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="K50" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L50" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" t="s">
+        <v>2224</v>
+      </c>
+      <c r="N50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="7" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>2984</v>
+      </c>
+      <c r="K52" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N52" t="s">
+        <v>144</v>
+      </c>
+      <c r="O52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="7" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K54" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L54" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54" t="s">
+        <v>59</v>
+      </c>
+      <c r="N54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="7" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K56" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L56" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N56" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="7" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="K58" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L58" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" t="s">
+        <v>965</v>
+      </c>
+      <c r="N58" t="s">
         <v>150</v>
       </c>
-      <c r="P30" t="s">
-        <v>3002</v>
-      </c>
-      <c r="R30" s="8" t="s">
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="7" t="s">
-        <v>3004</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C31" s="8" t="s">
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="7" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K60" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L60" t="s">
+        <v>18</v>
+      </c>
+      <c r="M60" t="s">
+        <v>3024</v>
+      </c>
+      <c r="N60" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="7" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K62" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L62" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" t="s">
+        <v>746</v>
+      </c>
+      <c r="N62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="7" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>2984</v>
+      </c>
+      <c r="K64" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L64" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" t="s">
+        <v>1270</v>
+      </c>
+      <c r="N64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="7" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>2989</v>
+      </c>
+      <c r="K66" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L66" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" t="s">
+        <v>1595</v>
+      </c>
+      <c r="N66" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="7" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>2997</v>
+      </c>
+      <c r="K68" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L68" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" t="s">
+        <v>2505</v>
+      </c>
+      <c r="N68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="7" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>2997</v>
+      </c>
+      <c r="K70" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L70" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" t="s">
+        <v>1430</v>
+      </c>
+      <c r="N70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="7" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>2984</v>
+      </c>
+      <c r="K72" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L72" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" t="s">
+        <v>3031</v>
+      </c>
+      <c r="N72" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="7" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>2989</v>
+      </c>
+      <c r="K74" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L74" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" t="s">
+        <v>1193</v>
+      </c>
+      <c r="N74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="7" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>2984</v>
+      </c>
+      <c r="K76" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L76" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" t="s">
+        <v>367</v>
+      </c>
+      <c r="N76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="7" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K78" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L78" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" t="s">
+        <v>3035</v>
+      </c>
+      <c r="N78" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="7" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="K80" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L80" t="s">
+        <v>18</v>
+      </c>
+      <c r="M80" t="s">
+        <v>1554</v>
+      </c>
+      <c r="N80" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="7" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K82" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L82" t="s">
+        <v>18</v>
+      </c>
+      <c r="M82" t="s">
+        <v>1554</v>
+      </c>
+      <c r="N82" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="7" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="K84" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L84" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" t="s">
+        <v>3039</v>
+      </c>
+      <c r="N84" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="7" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="K86" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L86" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" t="s">
+        <v>3041</v>
+      </c>
+      <c r="N86" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="7" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>2984</v>
+      </c>
+      <c r="K88" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L88" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" t="s">
+        <v>302</v>
+      </c>
+      <c r="N88" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="7" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>2997</v>
+      </c>
+      <c r="K90" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L90" t="s">
+        <v>18</v>
+      </c>
+      <c r="M90" t="s">
+        <v>1637</v>
+      </c>
+      <c r="N90" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="7" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>2984</v>
+      </c>
+      <c r="K92" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L92" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="7" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="K94" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L94" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" t="s">
+        <v>1865</v>
+      </c>
+      <c r="N94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="7" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>2991</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>2992</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" s="8" t="s">
+      <c r="D96" s="8" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I96" s="8" t="s">
         <v>2975</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J96" s="8" t="s">
         <v>2989</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K96" t="s">
         <v>2977</v>
       </c>
-      <c r="L31" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" t="s">
-        <v>3005</v>
-      </c>
-      <c r="N31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="7" t="s">
-        <v>3006</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I33" s="8" t="s">
+      <c r="L96" t="s">
+        <v>18</v>
+      </c>
+      <c r="M96" t="s">
+        <v>3048</v>
+      </c>
+      <c r="N96" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="7" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I98" s="8" t="s">
         <v>2975</v>
       </c>
-      <c r="J33" s="8" t="s">
-        <v>3007</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="J98" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K98" t="s">
         <v>2977</v>
       </c>
-      <c r="L33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" t="s">
-        <v>3008</v>
-      </c>
-      <c r="N33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="7" t="s">
-        <v>3009</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>3010</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>3011</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>3012</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I35" s="8" t="s">
+      <c r="L98" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" t="s">
+        <v>2967</v>
+      </c>
+      <c r="N98" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="7" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I100" s="8" t="s">
         <v>2975</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K100" t="s">
         <v>2977</v>
       </c>
-      <c r="L35" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" t="s">
-        <v>1260</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="L100" t="s">
+        <v>18</v>
+      </c>
+      <c r="M100" t="s">
+        <v>1345</v>
+      </c>
+      <c r="N100" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="7" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K102" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L102" t="s">
+        <v>18</v>
+      </c>
+      <c r="M102" t="s">
+        <v>1233</v>
+      </c>
+      <c r="N102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="7" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>2989</v>
+      </c>
+      <c r="K104" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L104" t="s">
+        <v>18</v>
+      </c>
+      <c r="M104" t="s">
+        <v>1937</v>
+      </c>
+      <c r="N104" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="7" t="s">
-        <v>3013</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="8" t="s">
+    <row r="106" spans="1:14">
+      <c r="A106" s="7" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>2984</v>
+      </c>
+      <c r="K106" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L106" t="s">
+        <v>18</v>
+      </c>
+      <c r="M106" t="s">
+        <v>721</v>
+      </c>
+      <c r="N106" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="7" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I108" s="8" t="s">
         <v>2975</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J108" s="8" t="s">
+        <v>2984</v>
+      </c>
+      <c r="K108" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L108" t="s">
+        <v>18</v>
+      </c>
+      <c r="M108" t="s">
+        <v>699</v>
+      </c>
+      <c r="N108" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="7" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J110" s="8" t="s">
         <v>2976</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K110" t="s">
         <v>2977</v>
       </c>
-      <c r="L37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" t="s">
-        <v>3014</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="L110" t="s">
+        <v>18</v>
+      </c>
+      <c r="M110" t="s">
+        <v>691</v>
+      </c>
+      <c r="N110" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="7" t="s">
-        <v>3015</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" s="8" t="s">
+    <row r="112" spans="1:14">
+      <c r="A112" s="7" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K112" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L112" t="s">
+        <v>18</v>
+      </c>
+      <c r="M112" t="s">
+        <v>1270</v>
+      </c>
+      <c r="N112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="7" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I114" s="8" t="s">
         <v>2975</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J114" s="8" t="s">
         <v>2976</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K114" t="s">
         <v>2977</v>
       </c>
-      <c r="L39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M39" t="s">
-        <v>3014</v>
-      </c>
-      <c r="N39" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="7" t="s">
-        <v>3016</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I41" s="8" t="s">
+      <c r="L114" t="s">
+        <v>18</v>
+      </c>
+      <c r="M114" t="s">
+        <v>1325</v>
+      </c>
+      <c r="N114" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" s="7" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K116" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L116" t="s">
+        <v>18</v>
+      </c>
+      <c r="M116" t="s">
+        <v>2219</v>
+      </c>
+      <c r="N116" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="7" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>2266</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J118" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K118" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L118" t="s">
+        <v>18</v>
+      </c>
+      <c r="M118" t="s">
+        <v>405</v>
+      </c>
+      <c r="N118" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="7" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J120" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K120" t="s">
+        <v>2977</v>
+      </c>
+      <c r="L120" t="s">
+        <v>160</v>
+      </c>
+      <c r="M120" t="s">
+        <v>2281</v>
+      </c>
+      <c r="N120" t="s">
+        <v>756</v>
+      </c>
+      <c r="O120" t="s">
+        <v>28</v>
+      </c>
+      <c r="P120" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="7" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I122" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>2984</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="J122" s="8" t="s">
+        <v>2997</v>
+      </c>
+      <c r="K122" t="s">
         <v>2977</v>
       </c>
-      <c r="L41" t="s">
-        <v>18</v>
-      </c>
-      <c r="M41" t="s">
-        <v>704</v>
-      </c>
-      <c r="N41" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="7" t="s">
-        <v>3017</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="L122" t="s">
+        <v>18</v>
+      </c>
+      <c r="M122" t="s">
+        <v>595</v>
+      </c>
+      <c r="N122" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="7" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K124" t="s">
         <v>2977</v>
       </c>
-      <c r="L43" t="s">
-        <v>18</v>
-      </c>
-      <c r="M43" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="7" t="s">
-        <v>3018</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K45" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M45" t="s">
-        <v>3019</v>
-      </c>
-      <c r="N45" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="7" t="s">
-        <v>3020</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>774</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K47" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L47" t="s">
-        <v>18</v>
-      </c>
-      <c r="M47" t="s">
-        <v>1127</v>
-      </c>
-      <c r="N47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="7" t="s">
-        <v>3021</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>826</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>3007</v>
-      </c>
-      <c r="K49" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L49" t="s">
-        <v>18</v>
-      </c>
-      <c r="M49" t="s">
-        <v>827</v>
-      </c>
-      <c r="N49" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="7" t="s">
-        <v>3022</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>936</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K51" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L51" t="s">
-        <v>18</v>
-      </c>
-      <c r="M51" t="s">
-        <v>3023</v>
-      </c>
-      <c r="N51" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="7" t="s">
-        <v>3024</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>932</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K53" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L53" t="s">
-        <v>18</v>
-      </c>
-      <c r="M53" t="s">
-        <v>420</v>
-      </c>
-      <c r="N53" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="7" t="s">
-        <v>3025</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>3026</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>3027</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>3028</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="K55" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L55" t="s">
-        <v>18</v>
-      </c>
-      <c r="M55" t="s">
-        <v>2224</v>
-      </c>
-      <c r="N55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="7" t="s">
-        <v>3029</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>2984</v>
-      </c>
-      <c r="K57" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L57" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M57" t="s">
-        <v>1550</v>
-      </c>
-      <c r="N57" t="s">
-        <v>144</v>
-      </c>
-      <c r="O57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="7" t="s">
-        <v>3030</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K59" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L59" t="s">
-        <v>18</v>
-      </c>
-      <c r="M59" t="s">
-        <v>59</v>
-      </c>
-      <c r="N59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="7" t="s">
-        <v>3031</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K61" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L61" t="s">
-        <v>18</v>
-      </c>
-      <c r="M61" t="s">
-        <v>1140</v>
-      </c>
-      <c r="N61" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="7" t="s">
-        <v>3032</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="K63" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L63" t="s">
-        <v>18</v>
-      </c>
-      <c r="M63" t="s">
-        <v>965</v>
-      </c>
-      <c r="N63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="7" t="s">
-        <v>3033</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K65" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L65" t="s">
-        <v>18</v>
-      </c>
-      <c r="M65" t="s">
-        <v>3034</v>
-      </c>
-      <c r="N65" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="7" t="s">
-        <v>3035</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K67" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L67" t="s">
-        <v>18</v>
-      </c>
-      <c r="M67" t="s">
-        <v>746</v>
-      </c>
-      <c r="N67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="7" t="s">
-        <v>3036</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>841</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>2984</v>
-      </c>
-      <c r="K69" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L69" t="s">
-        <v>18</v>
-      </c>
-      <c r="M69" t="s">
-        <v>1270</v>
-      </c>
-      <c r="N69" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="7" t="s">
-        <v>3037</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>2989</v>
-      </c>
-      <c r="K71" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L71" t="s">
-        <v>18</v>
-      </c>
-      <c r="M71" t="s">
-        <v>1595</v>
-      </c>
-      <c r="N71" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="7" t="s">
-        <v>3038</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>3007</v>
-      </c>
-      <c r="K73" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L73" t="s">
-        <v>18</v>
-      </c>
-      <c r="M73" t="s">
-        <v>2505</v>
-      </c>
-      <c r="N73" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="7" t="s">
-        <v>3039</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>1429</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>3007</v>
-      </c>
-      <c r="K75" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L75" t="s">
-        <v>18</v>
-      </c>
-      <c r="M75" t="s">
-        <v>1430</v>
-      </c>
-      <c r="N75" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="7" t="s">
-        <v>3040</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>2984</v>
-      </c>
-      <c r="K77" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L77" t="s">
-        <v>18</v>
-      </c>
-      <c r="M77" t="s">
-        <v>3041</v>
-      </c>
-      <c r="N77" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="7" t="s">
-        <v>3042</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>2989</v>
-      </c>
-      <c r="K79" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L79" t="s">
-        <v>18</v>
-      </c>
-      <c r="M79" t="s">
-        <v>1193</v>
-      </c>
-      <c r="N79" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="7" t="s">
-        <v>3043</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>2984</v>
-      </c>
-      <c r="K81" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L81" t="s">
-        <v>18</v>
-      </c>
-      <c r="M81" t="s">
-        <v>367</v>
-      </c>
-      <c r="N81" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="7" t="s">
-        <v>3044</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K83" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L83" t="s">
-        <v>18</v>
-      </c>
-      <c r="M83" t="s">
-        <v>3045</v>
-      </c>
-      <c r="N83" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="7" t="s">
-        <v>3046</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>1548</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="K85" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L85" t="s">
-        <v>18</v>
-      </c>
-      <c r="M85" t="s">
-        <v>1554</v>
-      </c>
-      <c r="N85" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="7" t="s">
-        <v>3047</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K87" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L87" t="s">
-        <v>18</v>
-      </c>
-      <c r="M87" t="s">
-        <v>1554</v>
-      </c>
-      <c r="N87" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="7" t="s">
-        <v>3048</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>982</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>1560</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I89" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="K89" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L89" t="s">
-        <v>18</v>
-      </c>
-      <c r="M89" t="s">
-        <v>3049</v>
-      </c>
-      <c r="N89" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="7" t="s">
-        <v>3050</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="K91" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L91" t="s">
-        <v>18</v>
-      </c>
-      <c r="M91" t="s">
-        <v>3051</v>
-      </c>
-      <c r="N91" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" s="7" t="s">
-        <v>3052</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J93" s="8" t="s">
-        <v>2984</v>
-      </c>
-      <c r="K93" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L93" t="s">
-        <v>18</v>
-      </c>
-      <c r="M93" t="s">
-        <v>302</v>
-      </c>
-      <c r="N93" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" s="7" t="s">
-        <v>3053</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J95" s="8" t="s">
-        <v>3007</v>
-      </c>
-      <c r="K95" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L95" t="s">
-        <v>18</v>
-      </c>
-      <c r="M95" t="s">
-        <v>1637</v>
-      </c>
-      <c r="N95" t="s">
-        <v>3054</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" s="7" t="s">
-        <v>3055</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J97" s="8" t="s">
-        <v>2984</v>
-      </c>
-      <c r="K97" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L97" t="s">
-        <v>18</v>
-      </c>
-      <c r="M97" t="s">
-        <v>1044</v>
-      </c>
-      <c r="N97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" s="7" t="s">
-        <v>3056</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I99" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="K99" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L99" t="s">
-        <v>18</v>
-      </c>
-      <c r="M99" t="s">
-        <v>1865</v>
-      </c>
-      <c r="N99" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" s="7" t="s">
-        <v>3057</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J101" s="8" t="s">
-        <v>2989</v>
-      </c>
-      <c r="K101" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L101" t="s">
-        <v>18</v>
-      </c>
-      <c r="M101" t="s">
-        <v>3058</v>
-      </c>
-      <c r="N101" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
-      <c r="A103" s="7" t="s">
-        <v>3059</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>1819</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I103" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J103" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K103" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L103" t="s">
-        <v>18</v>
-      </c>
-      <c r="M103" t="s">
-        <v>2967</v>
-      </c>
-      <c r="N103" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
-      <c r="A105" s="7" t="s">
-        <v>3060</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>1858</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="K105" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L105" t="s">
-        <v>18</v>
-      </c>
-      <c r="M105" t="s">
-        <v>1345</v>
-      </c>
-      <c r="N105" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
-      <c r="A107" s="7" t="s">
-        <v>3061</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>1919</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>1917</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I107" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J107" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K107" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L107" t="s">
-        <v>18</v>
-      </c>
-      <c r="M107" t="s">
-        <v>1233</v>
-      </c>
-      <c r="N107" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
-      <c r="A109" s="7" t="s">
-        <v>3062</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>1934</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>1935</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>1936</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I109" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J109" s="8" t="s">
-        <v>2989</v>
-      </c>
-      <c r="K109" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L109" t="s">
-        <v>18</v>
-      </c>
-      <c r="M109" t="s">
-        <v>1937</v>
-      </c>
-      <c r="N109" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
-      <c r="A111" s="7" t="s">
-        <v>3063</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>1939</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>1940</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H111" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I111" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J111" s="8" t="s">
-        <v>2984</v>
-      </c>
-      <c r="K111" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L111" t="s">
-        <v>18</v>
-      </c>
-      <c r="M111" t="s">
-        <v>721</v>
-      </c>
-      <c r="N111" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16">
-      <c r="A113" s="7" t="s">
-        <v>3064</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>2086</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I113" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J113" s="8" t="s">
-        <v>2984</v>
-      </c>
-      <c r="K113" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L113" t="s">
-        <v>18</v>
-      </c>
-      <c r="M113" t="s">
-        <v>699</v>
-      </c>
-      <c r="N113" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16">
-      <c r="A115" s="7" t="s">
-        <v>3065</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>2104</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>2105</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I115" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J115" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K115" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L115" t="s">
-        <v>18</v>
-      </c>
-      <c r="M115" t="s">
-        <v>691</v>
-      </c>
-      <c r="N115" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16">
-      <c r="A117" s="7" t="s">
-        <v>3066</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>2141</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>2142</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>2143</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I117" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K117" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L117" t="s">
-        <v>18</v>
-      </c>
-      <c r="M117" t="s">
-        <v>1270</v>
-      </c>
-      <c r="N117" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
-      <c r="A119" s="7" t="s">
-        <v>3067</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>2213</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>2214</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>2215</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I119" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J119" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K119" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L119" t="s">
-        <v>18</v>
-      </c>
-      <c r="M119" t="s">
-        <v>1325</v>
-      </c>
-      <c r="N119" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16">
-      <c r="A121" s="7" t="s">
-        <v>3068</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>2217</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>2218</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I121" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J121" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K121" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L121" t="s">
-        <v>18</v>
-      </c>
-      <c r="M121" t="s">
-        <v>2219</v>
-      </c>
-      <c r="N121" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16">
-      <c r="A123" s="7" t="s">
-        <v>3069</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>2082</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>2266</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I123" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J123" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K123" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L123" t="s">
-        <v>18</v>
-      </c>
-      <c r="M123" t="s">
-        <v>405</v>
-      </c>
-      <c r="N123" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16">
-      <c r="A125" s="7" t="s">
-        <v>3070</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>2278</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>2279</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>2280</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I125" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J125" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K125" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L125" t="s">
-        <v>160</v>
-      </c>
-      <c r="M125" t="s">
-        <v>2281</v>
-      </c>
-      <c r="N125" t="s">
-        <v>756</v>
-      </c>
-      <c r="O125" t="s">
-        <v>28</v>
-      </c>
-      <c r="P125" t="s">
+      <c r="L124" t="s">
+        <v>18</v>
+      </c>
+      <c r="M124" t="s">
         <v>2283</v>
       </c>
-    </row>
-    <row r="127" spans="1:16">
-      <c r="A127" s="7" t="s">
-        <v>3071</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>2381</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>2378</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I127" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J127" s="8" t="s">
-        <v>3007</v>
-      </c>
-      <c r="K127" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L127" t="s">
-        <v>18</v>
-      </c>
-      <c r="M127" t="s">
-        <v>595</v>
-      </c>
-      <c r="N127" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="7" t="s">
-        <v>3072</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>2387</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>2388</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I129" s="8" t="s">
-        <v>2975</v>
-      </c>
-      <c r="J129" s="8" t="s">
-        <v>2976</v>
-      </c>
-      <c r="K129" t="s">
-        <v>2977</v>
-      </c>
-      <c r="L129" t="s">
-        <v>18</v>
-      </c>
-      <c r="M129" t="s">
-        <v>2283</v>
-      </c>
-      <c r="N129" t="s">
+      <c r="N124" t="s">
         <v>29</v>
       </c>
     </row>
@@ -53451,106 +53286,100 @@
     <hyperlink ref="B28" r:id="rId28"/>
     <hyperlink ref="A30" r:id="rId29"/>
     <hyperlink ref="B30" r:id="rId30"/>
-    <hyperlink ref="A31" r:id="rId31"/>
-    <hyperlink ref="B31" r:id="rId32"/>
-    <hyperlink ref="A33" r:id="rId33"/>
-    <hyperlink ref="B33" r:id="rId34"/>
-    <hyperlink ref="A35" r:id="rId35"/>
-    <hyperlink ref="B35" r:id="rId36"/>
-    <hyperlink ref="A37" r:id="rId37"/>
-    <hyperlink ref="B37" r:id="rId38"/>
-    <hyperlink ref="A39" r:id="rId39"/>
-    <hyperlink ref="B39" r:id="rId40"/>
-    <hyperlink ref="A41" r:id="rId41"/>
-    <hyperlink ref="B41" r:id="rId42"/>
-    <hyperlink ref="A43" r:id="rId43"/>
-    <hyperlink ref="B43" r:id="rId44"/>
-    <hyperlink ref="A45" r:id="rId45"/>
-    <hyperlink ref="B45" r:id="rId46"/>
-    <hyperlink ref="A47" r:id="rId47"/>
-    <hyperlink ref="B47" r:id="rId48"/>
-    <hyperlink ref="A49" r:id="rId49"/>
-    <hyperlink ref="B49" r:id="rId50"/>
-    <hyperlink ref="A51" r:id="rId51"/>
-    <hyperlink ref="B51" r:id="rId52"/>
-    <hyperlink ref="A53" r:id="rId53"/>
-    <hyperlink ref="B53" r:id="rId54"/>
-    <hyperlink ref="A55" r:id="rId55"/>
-    <hyperlink ref="B55" r:id="rId56"/>
-    <hyperlink ref="A57" r:id="rId57"/>
-    <hyperlink ref="B57" r:id="rId58"/>
-    <hyperlink ref="A59" r:id="rId59"/>
-    <hyperlink ref="B59" r:id="rId60"/>
-    <hyperlink ref="A61" r:id="rId61"/>
-    <hyperlink ref="B61" r:id="rId62"/>
-    <hyperlink ref="A63" r:id="rId63"/>
-    <hyperlink ref="B63" r:id="rId64"/>
-    <hyperlink ref="A65" r:id="rId65"/>
-    <hyperlink ref="B65" r:id="rId66"/>
-    <hyperlink ref="A67" r:id="rId67"/>
-    <hyperlink ref="B67" r:id="rId68"/>
-    <hyperlink ref="A69" r:id="rId69"/>
-    <hyperlink ref="B69" r:id="rId70"/>
-    <hyperlink ref="A71" r:id="rId71"/>
-    <hyperlink ref="B71" r:id="rId72"/>
-    <hyperlink ref="A73" r:id="rId73"/>
-    <hyperlink ref="B73" r:id="rId74"/>
-    <hyperlink ref="A75" r:id="rId75"/>
-    <hyperlink ref="B75" r:id="rId76"/>
-    <hyperlink ref="A77" r:id="rId77"/>
-    <hyperlink ref="B77" r:id="rId78"/>
-    <hyperlink ref="A79" r:id="rId79"/>
-    <hyperlink ref="B79" r:id="rId80"/>
-    <hyperlink ref="A81" r:id="rId81"/>
-    <hyperlink ref="B81" r:id="rId82"/>
-    <hyperlink ref="A83" r:id="rId83"/>
-    <hyperlink ref="B83" r:id="rId84"/>
-    <hyperlink ref="A85" r:id="rId85"/>
-    <hyperlink ref="B85" r:id="rId86"/>
-    <hyperlink ref="A87" r:id="rId87"/>
-    <hyperlink ref="B87" r:id="rId88"/>
-    <hyperlink ref="A89" r:id="rId89"/>
-    <hyperlink ref="B89" r:id="rId90"/>
-    <hyperlink ref="A91" r:id="rId91"/>
-    <hyperlink ref="B91" r:id="rId92"/>
-    <hyperlink ref="A93" r:id="rId93"/>
-    <hyperlink ref="B93" r:id="rId94"/>
-    <hyperlink ref="A95" r:id="rId95"/>
-    <hyperlink ref="B95" r:id="rId96"/>
-    <hyperlink ref="A97" r:id="rId97"/>
-    <hyperlink ref="B97" r:id="rId98"/>
-    <hyperlink ref="A99" r:id="rId99"/>
-    <hyperlink ref="B99" r:id="rId100"/>
-    <hyperlink ref="A101" r:id="rId101"/>
-    <hyperlink ref="B101" r:id="rId102"/>
-    <hyperlink ref="A103" r:id="rId103"/>
-    <hyperlink ref="B103" r:id="rId104"/>
-    <hyperlink ref="A105" r:id="rId105"/>
-    <hyperlink ref="B105" r:id="rId106"/>
-    <hyperlink ref="A107" r:id="rId107"/>
-    <hyperlink ref="B107" r:id="rId108"/>
-    <hyperlink ref="A109" r:id="rId109"/>
-    <hyperlink ref="B109" r:id="rId110"/>
-    <hyperlink ref="A111" r:id="rId111"/>
-    <hyperlink ref="B111" r:id="rId112"/>
-    <hyperlink ref="A113" r:id="rId113"/>
-    <hyperlink ref="B113" r:id="rId114"/>
-    <hyperlink ref="A115" r:id="rId115"/>
-    <hyperlink ref="B115" r:id="rId116"/>
-    <hyperlink ref="A117" r:id="rId117"/>
-    <hyperlink ref="B117" r:id="rId118"/>
-    <hyperlink ref="A119" r:id="rId119"/>
-    <hyperlink ref="B119" r:id="rId120"/>
-    <hyperlink ref="A121" r:id="rId121"/>
-    <hyperlink ref="B121" r:id="rId122"/>
-    <hyperlink ref="A123" r:id="rId123"/>
-    <hyperlink ref="B123" r:id="rId124"/>
-    <hyperlink ref="A125" r:id="rId125"/>
-    <hyperlink ref="B125" r:id="rId126"/>
-    <hyperlink ref="A127" r:id="rId127"/>
-    <hyperlink ref="B127" r:id="rId128"/>
-    <hyperlink ref="A129" r:id="rId129"/>
-    <hyperlink ref="B129" r:id="rId130"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="B32" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="B34" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="B36" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="B38" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="B40" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="B42" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="B44" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="B46" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="B48" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="B50" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="B52" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="B54" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="B56" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="B58" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="B60" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="B62" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="B64" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="B66" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="B68" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="B70" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="B72" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="B74" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="B76" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="B78" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="B80" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="B82" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="B84" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="B86" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="B88" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="B90" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="B92" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="B94" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="B96" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="B98" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="B100" r:id="rId100"/>
+    <hyperlink ref="A102" r:id="rId101"/>
+    <hyperlink ref="B102" r:id="rId102"/>
+    <hyperlink ref="A104" r:id="rId103"/>
+    <hyperlink ref="B104" r:id="rId104"/>
+    <hyperlink ref="A106" r:id="rId105"/>
+    <hyperlink ref="B106" r:id="rId106"/>
+    <hyperlink ref="A108" r:id="rId107"/>
+    <hyperlink ref="B108" r:id="rId108"/>
+    <hyperlink ref="A110" r:id="rId109"/>
+    <hyperlink ref="B110" r:id="rId110"/>
+    <hyperlink ref="A112" r:id="rId111"/>
+    <hyperlink ref="B112" r:id="rId112"/>
+    <hyperlink ref="A114" r:id="rId113"/>
+    <hyperlink ref="B114" r:id="rId114"/>
+    <hyperlink ref="A116" r:id="rId115"/>
+    <hyperlink ref="B116" r:id="rId116"/>
+    <hyperlink ref="A118" r:id="rId117"/>
+    <hyperlink ref="B118" r:id="rId118"/>
+    <hyperlink ref="A120" r:id="rId119"/>
+    <hyperlink ref="B120" r:id="rId120"/>
+    <hyperlink ref="A122" r:id="rId121"/>
+    <hyperlink ref="B122" r:id="rId122"/>
+    <hyperlink ref="A124" r:id="rId123"/>
+    <hyperlink ref="B124" r:id="rId124"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53631,7 +53460,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>3073</v>
+        <v>3063</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2447</v>
@@ -53655,16 +53484,16 @@
         <v>98</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K2" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>3076</v>
+        <v>3066</v>
       </c>
       <c r="N2" t="s">
         <v>756</v>
@@ -53672,7 +53501,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>3077</v>
+        <v>3067</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2520</v>
@@ -53696,10 +53525,10 @@
         <v>98</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K4" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
@@ -53713,7 +53542,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>3078</v>
+        <v>3068</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>2535</v>
@@ -53737,16 +53566,16 @@
         <v>98</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K6" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>3079</v>
+        <v>3069</v>
       </c>
       <c r="N6" t="s">
         <v>768</v>
@@ -53754,7 +53583,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>3080</v>
+        <v>3070</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>2529</v>
@@ -53778,16 +53607,16 @@
         <v>98</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K8" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>3079</v>
+        <v>3069</v>
       </c>
       <c r="N8" t="s">
         <v>768</v>
@@ -53795,7 +53624,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>3081</v>
+        <v>3071</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2560</v>
@@ -53819,10 +53648,10 @@
         <v>98</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K10" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
@@ -53836,7 +53665,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
-        <v>3082</v>
+        <v>3072</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>2565</v>
@@ -53860,10 +53689,10 @@
         <v>98</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K12" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
@@ -53877,16 +53706,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
-        <v>3083</v>
+        <v>3073</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3084</v>
+        <v>3074</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>3085</v>
+        <v>3075</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>3086</v>
+        <v>3076</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>97</v>
@@ -53901,10 +53730,10 @@
         <v>98</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K14" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -53918,7 +53747,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
-        <v>3087</v>
+        <v>3077</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>2645</v>
@@ -53942,10 +53771,10 @@
         <v>98</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K16" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -53959,7 +53788,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="7" t="s">
-        <v>3088</v>
+        <v>3078</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>2704</v>
@@ -53983,10 +53812,10 @@
         <v>98</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K18" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L18" t="s">
         <v>2657</v>
@@ -53998,12 +53827,12 @@
         <v>143</v>
       </c>
       <c r="P18" t="s">
-        <v>3089</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="7" t="s">
-        <v>3090</v>
+        <v>3080</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>2708</v>
@@ -54027,16 +53856,16 @@
         <v>98</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K20" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L20" t="s">
         <v>2657</v>
       </c>
       <c r="M20" t="s">
-        <v>3091</v>
+        <v>3081</v>
       </c>
       <c r="N20" t="s">
         <v>125</v>
@@ -54047,7 +53876,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="7" t="s">
-        <v>3092</v>
+        <v>3082</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>2788</v>
@@ -54071,10 +53900,10 @@
         <v>98</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K22" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L22" t="s">
         <v>18</v>
@@ -54088,7 +53917,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="7" t="s">
-        <v>3093</v>
+        <v>3083</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>2818</v>
@@ -54112,16 +53941,16 @@
         <v>98</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K24" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L24" t="s">
         <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>3094</v>
+        <v>3084</v>
       </c>
       <c r="N24" t="s">
         <v>125</v>
@@ -54129,7 +53958,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="7" t="s">
-        <v>3095</v>
+        <v>3085</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>2827</v>
@@ -54153,10 +53982,10 @@
         <v>98</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K26" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L26" t="s">
         <v>18</v>
@@ -54170,7 +53999,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="7" t="s">
-        <v>3096</v>
+        <v>3086</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>2882</v>
@@ -54194,10 +54023,10 @@
         <v>98</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K28" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L28" t="s">
         <v>18</v>
@@ -54211,7 +54040,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="7" t="s">
-        <v>3097</v>
+        <v>3087</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>2890</v>
@@ -54235,10 +54064,10 @@
         <v>98</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K30" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L30" t="s">
         <v>18</v>
@@ -54252,7 +54081,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="7" t="s">
-        <v>3098</v>
+        <v>3088</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>2894</v>
@@ -54276,16 +54105,16 @@
         <v>98</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K32" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L32" t="s">
         <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>3099</v>
+        <v>3089</v>
       </c>
       <c r="N32" t="s">
         <v>950</v>
@@ -54293,7 +54122,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="7" t="s">
-        <v>3100</v>
+        <v>3090</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>2917</v>
@@ -54317,27 +54146,27 @@
         <v>98</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K34" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L34" t="s">
         <v>2657</v>
       </c>
       <c r="M34" t="s">
-        <v>3101</v>
+        <v>3091</v>
       </c>
       <c r="N34" t="s">
         <v>150</v>
       </c>
       <c r="P34" t="s">
-        <v>3102</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="7" t="s">
-        <v>3103</v>
+        <v>3093</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>2931</v>
@@ -54361,10 +54190,10 @@
         <v>98</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K36" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L36" t="s">
         <v>18</v>
@@ -54378,7 +54207,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="7" t="s">
-        <v>3104</v>
+        <v>3094</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>2947</v>
@@ -54402,10 +54231,10 @@
         <v>98</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K38" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="L38" t="s">
         <v>2657</v>

--- a/excel_reports/Rhee_Cano.xlsx
+++ b/excel_reports/Rhee_Cano.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12909" uniqueCount="3093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12954" uniqueCount="3104">
   <si>
     <t>Policy Record</t>
   </si>
@@ -8335,6 +8335,12 @@
     <t>Aetna Medicare Freedom Plan (PPO)</t>
   </si>
   <si>
+    <t>11-30-2022</t>
+  </si>
+  <si>
+    <t>Deceased</t>
+  </si>
+  <si>
     <t>3168371881</t>
   </si>
   <si>
@@ -8893,6 +8899,21 @@
     <t>PrimeStar® Access</t>
   </si>
   <si>
+    <t>3907342116</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Seifert</t>
+  </si>
+  <si>
+    <t>PrimeStar® Value</t>
+  </si>
+  <si>
+    <t>11-15-2022</t>
+  </si>
+  <si>
     <t>3172361648</t>
   </si>
   <si>
@@ -8909,6 +8930,18 @@
   </si>
   <si>
     <t>3172133414</t>
+  </si>
+  <si>
+    <t>3172133422</t>
+  </si>
+  <si>
+    <t>switched to Ameritas</t>
+  </si>
+  <si>
+    <t>3356736096</t>
+  </si>
+  <si>
+    <t>10-18-2022</t>
   </si>
   <si>
     <t>3172447264</t>
@@ -9702,12 +9735,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>3063</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>3064</v>
+        <v>3075</v>
       </c>
       <c r="B2" s="2">
         <v>542</v>
@@ -9715,26 +9748,26 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>3065</v>
+        <v>3076</v>
       </c>
       <c r="B3" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>3066</v>
+        <v>3077</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3067</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>3068</v>
+        <v>3079</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -9743,7 +9776,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>3069</v>
+        <v>3080</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -9751,30 +9784,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>3070</v>
+        <v>3081</v>
       </c>
       <c r="B7" s="2">
         <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3071</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>3072</v>
+        <v>3083</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3073</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>3074</v>
+        <v>3085</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -9783,12 +9816,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>3075</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>3076</v>
+        <v>3087</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -9796,7 +9829,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>3077</v>
+        <v>3088</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -9804,20 +9837,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>3078</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>3079</v>
+        <v>3090</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3092</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>3080</v>
+        <v>3091</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -9826,12 +9859,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>3081</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>3082</v>
+        <v>3093</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -9839,15 +9872,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>3083</v>
+        <v>3094</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>3084</v>
+        <v>3095</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -9855,7 +9888,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>3085</v>
+        <v>3096</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -9864,7 +9897,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>3086</v>
+        <v>3097</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -9873,7 +9906,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>3087</v>
+        <v>3098</v>
       </c>
       <c r="B26">
         <v>11</v>
@@ -9881,7 +9914,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>3088</v>
+        <v>3099</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -9889,7 +9922,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>3089</v>
+        <v>3100</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -9897,7 +9930,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>3090</v>
+        <v>3101</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -9906,7 +9939,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>3091</v>
+        <v>3102</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -46300,7 +46333,7 @@
         <v>1502</v>
       </c>
       <c r="L1348" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="M1348" t="s">
         <v>2290</v>
@@ -46308,8 +46341,14 @@
       <c r="N1348" t="s">
         <v>125</v>
       </c>
+      <c r="P1348" t="s">
+        <v>2772</v>
+      </c>
       <c r="Q1348" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="R1348" s="6" t="s">
+        <v>2773</v>
       </c>
       <c r="S1348" s="7" t="s">
         <v>36</v>
@@ -46317,16 +46356,16 @@
     </row>
     <row r="1350" spans="1:23">
       <c r="A1350" s="9" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="B1350" s="9" t="s">
-        <v>2773</v>
+        <v>2775</v>
       </c>
       <c r="C1350" s="6" t="s">
         <v>752</v>
       </c>
       <c r="D1350" s="6" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
       <c r="E1350" s="6" t="s">
         <v>25</v>
@@ -46344,7 +46383,7 @@
         <v>331</v>
       </c>
       <c r="J1350" s="6" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="K1350" t="s">
         <v>1502</v>
@@ -46373,16 +46412,16 @@
     </row>
     <row r="1352" spans="1:23">
       <c r="A1352" s="9" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B1352" s="9" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C1352" s="6" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D1352" s="6" t="s">
         <v>2776</v>
-      </c>
-      <c r="B1352" s="9" t="s">
-        <v>2777</v>
-      </c>
-      <c r="C1352" s="6" t="s">
-        <v>2778</v>
-      </c>
-      <c r="D1352" s="6" t="s">
-        <v>2774</v>
       </c>
       <c r="E1352" s="6" t="s">
         <v>25</v>
@@ -46400,7 +46439,7 @@
         <v>331</v>
       </c>
       <c r="J1352" s="6" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="K1352" t="s">
         <v>1502</v>
@@ -46429,16 +46468,16 @@
     </row>
     <row r="1354" spans="1:23">
       <c r="A1354" s="9" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="B1354" s="9" t="s">
-        <v>2781</v>
+        <v>2783</v>
       </c>
       <c r="C1354" s="6" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="D1354" s="6" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="E1354" s="6" t="s">
         <v>25</v>
@@ -46456,7 +46495,7 @@
         <v>331</v>
       </c>
       <c r="J1354" s="6" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="K1354" t="s">
         <v>1502</v>
@@ -46479,16 +46518,16 @@
     </row>
     <row r="1356" spans="1:23">
       <c r="A1356" s="9" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="B1356" s="9" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c r="C1356" s="6" t="s">
         <v>913</v>
       </c>
       <c r="D1356" s="6" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="E1356" s="6" t="s">
         <v>25</v>
@@ -46506,7 +46545,7 @@
         <v>331</v>
       </c>
       <c r="J1356" s="6" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="K1356" t="s">
         <v>1502</v>
@@ -46535,16 +46574,16 @@
     </row>
     <row r="1358" spans="1:23">
       <c r="A1358" s="9" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="B1358" s="9" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="C1358" s="6" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
       <c r="D1358" s="6" t="s">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c r="E1358" s="6" t="s">
         <v>25</v>
@@ -46571,7 +46610,7 @@
         <v>32</v>
       </c>
       <c r="M1358" t="s">
-        <v>2793</v>
+        <v>2795</v>
       </c>
       <c r="N1358" t="s">
         <v>58</v>
@@ -46597,16 +46636,16 @@
     </row>
     <row r="1360" spans="1:23">
       <c r="A1360" s="9" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="B1360" s="9" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="C1360" s="6" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D1360" s="6" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="E1360" s="6" t="s">
         <v>25</v>
@@ -46647,16 +46686,16 @@
     </row>
     <row r="1362" spans="1:23">
       <c r="A1362" s="9" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
       <c r="B1362" s="9" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="C1362" s="6" t="s">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="D1362" s="6" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c r="E1362" s="6" t="s">
         <v>25</v>
@@ -46674,7 +46713,7 @@
         <v>1500</v>
       </c>
       <c r="J1362" s="6" t="s">
-        <v>2802</v>
+        <v>2804</v>
       </c>
       <c r="K1362" t="s">
         <v>1502</v>
@@ -46703,16 +46742,16 @@
     </row>
     <row r="1364" spans="1:23">
       <c r="A1364" s="9" t="s">
-        <v>2803</v>
+        <v>2805</v>
       </c>
       <c r="B1364" s="9" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
       <c r="C1364" s="6" t="s">
         <v>318</v>
       </c>
       <c r="D1364" s="6" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="E1364" s="6" t="s">
         <v>25</v>
@@ -46765,16 +46804,16 @@
     </row>
     <row r="1366" spans="1:23">
       <c r="A1366" s="9" t="s">
-        <v>2806</v>
+        <v>2808</v>
       </c>
       <c r="B1366" s="9" t="s">
-        <v>2807</v>
+        <v>2809</v>
       </c>
       <c r="C1366" s="6" t="s">
         <v>648</v>
       </c>
       <c r="D1366" s="6" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="E1366" s="6" t="s">
         <v>25</v>
@@ -46792,7 +46831,7 @@
         <v>1500</v>
       </c>
       <c r="J1366" s="6" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="K1366" t="s">
         <v>1502</v>
@@ -46815,16 +46854,16 @@
     </row>
     <row r="1368" spans="1:23">
       <c r="A1368" s="9" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="B1368" s="9" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="C1368" s="6" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="D1368" s="6" t="s">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c r="E1368" s="6" t="s">
         <v>25</v>
@@ -46842,7 +46881,7 @@
         <v>331</v>
       </c>
       <c r="J1368" s="6" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
       <c r="K1368" t="s">
         <v>1502</v>
@@ -46871,16 +46910,16 @@
     </row>
     <row r="1370" spans="1:23">
       <c r="A1370" s="9" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c r="B1370" s="9" t="s">
-        <v>2816</v>
+        <v>2818</v>
       </c>
       <c r="C1370" s="6" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="D1370" s="6" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="E1370" s="6" t="s">
         <v>25</v>
@@ -46907,7 +46946,7 @@
         <v>32</v>
       </c>
       <c r="M1370" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c r="N1370" t="s">
         <v>52</v>
@@ -46927,16 +46966,16 @@
     </row>
     <row r="1372" spans="1:23">
       <c r="A1372" s="9" t="s">
-        <v>2820</v>
+        <v>2822</v>
       </c>
       <c r="B1372" s="9" t="s">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c r="C1372" s="6" t="s">
         <v>1506</v>
       </c>
       <c r="D1372" s="6" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c r="E1372" s="6" t="s">
         <v>25</v>
@@ -46954,7 +46993,7 @@
         <v>2465</v>
       </c>
       <c r="J1372" s="6" t="s">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="K1372" t="s">
         <v>1502</v>
@@ -46969,10 +47008,10 @@
         <v>181</v>
       </c>
       <c r="O1372" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c r="P1372" t="s">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="Q1372" s="6" t="s">
         <v>36</v>
@@ -46983,16 +47022,16 @@
     </row>
     <row r="1374" spans="1:23">
       <c r="A1374" s="9" t="s">
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c r="B1374" s="9" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="C1374" s="6" t="s">
         <v>1100</v>
       </c>
       <c r="D1374" s="6" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c r="E1374" s="6" t="s">
         <v>25</v>
@@ -47010,7 +47049,7 @@
         <v>2465</v>
       </c>
       <c r="J1374" s="6" t="s">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="K1374" t="s">
         <v>1502</v>
@@ -47039,16 +47078,16 @@
     </row>
     <row r="1376" spans="1:23">
       <c r="A1376" s="9" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
       <c r="B1376" s="9" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="C1376" s="6" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
       <c r="D1376" s="6" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="E1376" s="6" t="s">
         <v>25</v>
@@ -47066,7 +47105,7 @@
         <v>1500</v>
       </c>
       <c r="J1376" s="6" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="K1376" t="s">
         <v>1502</v>
@@ -47075,7 +47114,7 @@
         <v>1620</v>
       </c>
       <c r="M1376" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
       <c r="N1376" t="s">
         <v>46</v>
@@ -47095,16 +47134,16 @@
     </row>
     <row r="1378" spans="1:23">
       <c r="A1378" s="9" t="s">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c r="B1378" s="9" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="C1378" s="6" t="s">
         <v>1100</v>
       </c>
       <c r="D1378" s="6" t="s">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="E1378" s="6" t="s">
         <v>25</v>
@@ -47122,7 +47161,7 @@
         <v>331</v>
       </c>
       <c r="J1378" s="6" t="s">
-        <v>2837</v>
+        <v>2839</v>
       </c>
       <c r="K1378" t="s">
         <v>1502</v>
@@ -47131,7 +47170,7 @@
         <v>32</v>
       </c>
       <c r="M1378" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="N1378" t="s">
         <v>186</v>
@@ -47145,16 +47184,16 @@
     </row>
     <row r="1380" spans="1:23">
       <c r="A1380" s="9" t="s">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c r="B1380" s="9" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
       <c r="C1380" s="6" t="s">
-        <v>2841</v>
+        <v>2843</v>
       </c>
       <c r="D1380" s="6" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
       <c r="E1380" s="6" t="s">
         <v>25</v>
@@ -47172,7 +47211,7 @@
         <v>667</v>
       </c>
       <c r="J1380" s="6" t="s">
-        <v>2843</v>
+        <v>2845</v>
       </c>
       <c r="K1380" t="s">
         <v>1502</v>
@@ -47201,16 +47240,16 @@
     </row>
     <row r="1382" spans="1:23">
       <c r="A1382" s="9" t="s">
-        <v>2844</v>
+        <v>2846</v>
       </c>
       <c r="B1382" s="9" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="C1382" s="6" t="s">
         <v>220</v>
       </c>
       <c r="D1382" s="6" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="E1382" s="6" t="s">
         <v>25</v>
@@ -47228,7 +47267,7 @@
         <v>2465</v>
       </c>
       <c r="J1382" s="6" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="K1382" t="s">
         <v>1502</v>
@@ -47237,7 +47276,7 @@
         <v>32</v>
       </c>
       <c r="M1382" t="s">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="N1382" t="s">
         <v>71</v>
@@ -47257,16 +47296,16 @@
     </row>
     <row r="1384" spans="1:23">
       <c r="A1384" s="9" t="s">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="B1384" s="9" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="C1384" s="6" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="D1384" s="6" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="E1384" s="6" t="s">
         <v>25</v>
@@ -47284,7 +47323,7 @@
         <v>2465</v>
       </c>
       <c r="J1384" s="6" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="K1384" t="s">
         <v>1502</v>
@@ -47313,10 +47352,10 @@
     </row>
     <row r="1386" spans="1:23">
       <c r="A1386" s="9" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
       <c r="B1386" s="9" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="C1386" s="6" t="s">
         <v>1694</v>
@@ -47363,10 +47402,10 @@
     </row>
     <row r="1388" spans="1:23">
       <c r="A1388" s="9" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="B1388" s="9" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="C1388" s="6" t="s">
         <v>267</v>
@@ -47390,7 +47429,7 @@
         <v>667</v>
       </c>
       <c r="J1388" s="6" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="K1388" t="s">
         <v>1502</v>
@@ -47419,13 +47458,13 @@
     </row>
     <row r="1390" spans="1:23">
       <c r="A1390" s="9" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="B1390" s="9" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="C1390" s="6" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="D1390" s="6" t="s">
         <v>1817</v>
@@ -47446,7 +47485,7 @@
         <v>1500</v>
       </c>
       <c r="J1390" s="6" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="K1390" t="s">
         <v>1502</v>
@@ -47469,16 +47508,16 @@
     </row>
     <row r="1392" spans="1:23">
       <c r="A1392" s="9" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="B1392" s="9" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c r="C1392" s="6" t="s">
         <v>1239</v>
       </c>
       <c r="D1392" s="6" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="E1392" s="6" t="s">
         <v>25</v>
@@ -47496,7 +47535,7 @@
         <v>2465</v>
       </c>
       <c r="J1392" s="6" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="K1392" t="s">
         <v>1502</v>
@@ -47525,16 +47564,16 @@
     </row>
     <row r="1394" spans="1:23">
       <c r="A1394" s="9" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
       <c r="B1394" s="9" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="C1394" s="6" t="s">
         <v>457</v>
       </c>
       <c r="D1394" s="6" t="s">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="E1394" s="6" t="s">
         <v>25</v>
@@ -47587,16 +47626,16 @@
     </row>
     <row r="1396" spans="1:23">
       <c r="A1396" s="9" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="B1396" s="9" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="C1396" s="6" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="D1396" s="6" t="s">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="E1396" s="6" t="s">
         <v>25</v>
@@ -47623,7 +47662,7 @@
         <v>32</v>
       </c>
       <c r="M1396" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c r="N1396" t="s">
         <v>46</v>
@@ -47637,16 +47676,16 @@
     </row>
     <row r="1398" spans="1:23">
       <c r="A1398" s="9" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="B1398" s="9" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="C1398" s="6" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="D1398" s="6" t="s">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c r="E1398" s="6" t="s">
         <v>25</v>
@@ -47687,16 +47726,16 @@
     </row>
     <row r="1400" spans="1:23">
       <c r="A1400" s="9" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c r="B1400" s="9" t="s">
-        <v>2878</v>
+        <v>2880</v>
       </c>
       <c r="C1400" s="6" t="s">
         <v>726</v>
       </c>
       <c r="D1400" s="6" t="s">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="E1400" s="6" t="s">
         <v>25</v>
@@ -47723,7 +47762,7 @@
         <v>32</v>
       </c>
       <c r="M1400" t="s">
-        <v>2880</v>
+        <v>2882</v>
       </c>
       <c r="N1400" t="s">
         <v>76</v>
@@ -47743,13 +47782,13 @@
     </row>
     <row r="1402" spans="1:23">
       <c r="A1402" s="9" t="s">
-        <v>2881</v>
+        <v>2883</v>
       </c>
       <c r="B1402" s="9" t="s">
-        <v>2882</v>
+        <v>2884</v>
       </c>
       <c r="C1402" s="6" t="s">
-        <v>2883</v>
+        <v>2885</v>
       </c>
       <c r="D1402" s="6" t="s">
         <v>1983</v>
@@ -47793,10 +47832,10 @@
     </row>
     <row r="1404" spans="1:23">
       <c r="A1404" s="9" t="s">
-        <v>2884</v>
+        <v>2886</v>
       </c>
       <c r="B1404" s="9" t="s">
-        <v>2885</v>
+        <v>2887</v>
       </c>
       <c r="C1404" s="6" t="s">
         <v>793</v>
@@ -47820,7 +47859,7 @@
         <v>331</v>
       </c>
       <c r="J1404" s="6" t="s">
-        <v>2886</v>
+        <v>2888</v>
       </c>
       <c r="K1404" t="s">
         <v>1502</v>
@@ -47846,10 +47885,10 @@
     </row>
     <row r="1405" spans="1:23">
       <c r="A1405" s="9" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B1405" s="9" t="s">
         <v>2887</v>
-      </c>
-      <c r="B1405" s="9" t="s">
-        <v>2885</v>
       </c>
       <c r="C1405" s="6" t="s">
         <v>793</v>
@@ -47873,7 +47912,7 @@
         <v>331</v>
       </c>
       <c r="J1405" s="6" t="s">
-        <v>2888</v>
+        <v>2890</v>
       </c>
       <c r="K1405" t="s">
         <v>1502</v>
@@ -47902,16 +47941,16 @@
     </row>
     <row r="1407" spans="1:23">
       <c r="A1407" s="9" t="s">
-        <v>2889</v>
+        <v>2891</v>
       </c>
       <c r="B1407" s="9" t="s">
-        <v>2890</v>
+        <v>2892</v>
       </c>
       <c r="C1407" s="6" t="s">
-        <v>2891</v>
+        <v>2893</v>
       </c>
       <c r="D1407" s="6" t="s">
-        <v>2892</v>
+        <v>2894</v>
       </c>
       <c r="E1407" s="6" t="s">
         <v>25</v>
@@ -47929,7 +47968,7 @@
         <v>1500</v>
       </c>
       <c r="J1407" s="6" t="s">
-        <v>2893</v>
+        <v>2895</v>
       </c>
       <c r="K1407" t="s">
         <v>1502</v>
@@ -47938,7 +47977,7 @@
         <v>32</v>
       </c>
       <c r="M1407" t="s">
-        <v>2894</v>
+        <v>2896</v>
       </c>
       <c r="N1407" t="s">
         <v>114</v>
@@ -47958,13 +47997,13 @@
     </row>
     <row r="1409" spans="1:23">
       <c r="A1409" s="9" t="s">
-        <v>2895</v>
+        <v>2897</v>
       </c>
       <c r="B1409" s="9" t="s">
-        <v>2896</v>
+        <v>2898</v>
       </c>
       <c r="C1409" s="6" t="s">
-        <v>2897</v>
+        <v>2899</v>
       </c>
       <c r="D1409" s="6" t="s">
         <v>2002</v>
@@ -48008,10 +48047,10 @@
     </row>
     <row r="1411" spans="1:23">
       <c r="A1411" s="9" t="s">
-        <v>2898</v>
+        <v>2900</v>
       </c>
       <c r="B1411" s="9" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
       <c r="C1411" s="6" t="s">
         <v>472</v>
@@ -48035,7 +48074,7 @@
         <v>39</v>
       </c>
       <c r="J1411" s="6" t="s">
-        <v>2900</v>
+        <v>2902</v>
       </c>
       <c r="K1411" t="s">
         <v>1502</v>
@@ -48061,16 +48100,16 @@
     </row>
     <row r="1413" spans="1:23">
       <c r="A1413" s="9" t="s">
-        <v>2901</v>
+        <v>2903</v>
       </c>
       <c r="B1413" s="9" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
       <c r="C1413" s="6" t="s">
         <v>382</v>
       </c>
       <c r="D1413" s="6" t="s">
-        <v>2903</v>
+        <v>2905</v>
       </c>
       <c r="E1413" s="6" t="s">
         <v>25</v>
@@ -48117,16 +48156,16 @@
     </row>
     <row r="1415" spans="1:23">
       <c r="A1415" s="9" t="s">
-        <v>2904</v>
+        <v>2906</v>
       </c>
       <c r="B1415" s="9" t="s">
-        <v>2905</v>
+        <v>2907</v>
       </c>
       <c r="C1415" s="6" t="s">
         <v>688</v>
       </c>
       <c r="D1415" s="6" t="s">
-        <v>2906</v>
+        <v>2908</v>
       </c>
       <c r="E1415" s="6" t="s">
         <v>25</v>
@@ -48179,16 +48218,16 @@
     </row>
     <row r="1417" spans="1:23">
       <c r="A1417" s="9" t="s">
-        <v>2907</v>
+        <v>2909</v>
       </c>
       <c r="B1417" s="9" t="s">
-        <v>2908</v>
+        <v>2910</v>
       </c>
       <c r="C1417" s="6" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
       <c r="D1417" s="6" t="s">
-        <v>2910</v>
+        <v>2912</v>
       </c>
       <c r="E1417" s="6" t="s">
         <v>25</v>
@@ -48229,16 +48268,16 @@
     </row>
     <row r="1419" spans="1:23">
       <c r="A1419" s="9" t="s">
-        <v>2911</v>
+        <v>2913</v>
       </c>
       <c r="B1419" s="9" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
       <c r="C1419" s="6" t="s">
         <v>286</v>
       </c>
       <c r="D1419" s="6" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="E1419" s="6" t="s">
         <v>25</v>
@@ -48279,16 +48318,16 @@
     </row>
     <row r="1421" spans="1:23">
       <c r="A1421" s="9" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
       <c r="B1421" s="9" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
       <c r="C1421" s="6" t="s">
         <v>726</v>
       </c>
       <c r="D1421" s="6" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="E1421" s="6" t="s">
         <v>25</v>
@@ -48329,16 +48368,16 @@
     </row>
     <row r="1423" spans="1:23">
       <c r="A1423" s="9" t="s">
-        <v>2917</v>
+        <v>2919</v>
       </c>
       <c r="B1423" s="9" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="C1423" s="6" t="s">
         <v>2581</v>
       </c>
       <c r="D1423" s="6" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
       <c r="E1423" s="6" t="s">
         <v>25</v>
@@ -48356,7 +48395,7 @@
         <v>1500</v>
       </c>
       <c r="J1423" s="6" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
       <c r="K1423" t="s">
         <v>1502</v>
@@ -48379,16 +48418,16 @@
     </row>
     <row r="1425" spans="1:23">
       <c r="A1425" s="9" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="B1425" s="9" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="C1425" s="6" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="D1425" s="6" t="s">
-        <v>2924</v>
+        <v>2926</v>
       </c>
       <c r="E1425" s="6" t="s">
         <v>25</v>
@@ -48435,16 +48474,16 @@
     </row>
     <row r="1427" spans="1:23">
       <c r="A1427" s="9" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="B1427" s="9" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
       <c r="C1427" s="6" t="s">
         <v>457</v>
       </c>
       <c r="D1427" s="6" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
       <c r="E1427" s="6" t="s">
         <v>25</v>
@@ -48471,7 +48510,7 @@
         <v>32</v>
       </c>
       <c r="M1427" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="N1427" t="s">
         <v>146</v>
@@ -48491,16 +48530,16 @@
     </row>
     <row r="1429" spans="1:23">
       <c r="A1429" s="9" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
       <c r="B1429" s="9" t="s">
-        <v>2930</v>
+        <v>2932</v>
       </c>
       <c r="C1429" s="6" t="s">
         <v>1538</v>
       </c>
       <c r="D1429" s="6" t="s">
-        <v>2931</v>
+        <v>2933</v>
       </c>
       <c r="E1429" s="6" t="s">
         <v>25</v>
@@ -48518,7 +48557,7 @@
         <v>1500</v>
       </c>
       <c r="J1429" s="6" t="s">
-        <v>2932</v>
+        <v>2934</v>
       </c>
       <c r="K1429" t="s">
         <v>1502</v>
@@ -48547,10 +48586,10 @@
     </row>
     <row r="1431" spans="1:23">
       <c r="A1431" s="9" t="s">
-        <v>2933</v>
+        <v>2935</v>
       </c>
       <c r="B1431" s="9" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="C1431" s="6" t="s">
         <v>277</v>
@@ -48583,7 +48622,7 @@
         <v>32</v>
       </c>
       <c r="M1431" t="s">
-        <v>2935</v>
+        <v>2937</v>
       </c>
       <c r="N1431" t="s">
         <v>707</v>
@@ -48597,10 +48636,10 @@
     </row>
     <row r="1433" spans="1:23">
       <c r="A1433" s="9" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
       <c r="B1433" s="9" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="C1433" s="6" t="s">
         <v>2012</v>
@@ -48653,10 +48692,10 @@
     </row>
     <row r="1435" spans="1:23">
       <c r="A1435" s="9" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="B1435" s="9" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="C1435" s="6" t="s">
         <v>1041</v>
@@ -48680,7 +48719,7 @@
         <v>667</v>
       </c>
       <c r="J1435" s="6" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
       <c r="K1435" t="s">
         <v>1502</v>
@@ -48689,7 +48728,7 @@
         <v>32</v>
       </c>
       <c r="M1435" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
       <c r="N1435" t="s">
         <v>83</v>
@@ -50162,7 +50201,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T124"/>
+  <dimension ref="A1:T129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -50235,7 +50274,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="9" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>38</v>
@@ -50253,13 +50292,13 @@
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="K2" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
@@ -50273,7 +50312,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="9" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>48</v>
@@ -50297,10 +50336,10 @@
         <v>26</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="K4" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
@@ -50314,7 +50353,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="9" t="s">
-        <v>2947</v>
+        <v>2949</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>2405</v>
@@ -50338,19 +50377,19 @@
         <v>26</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="K6" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
       <c r="N6" t="s">
         <v>34</v>
@@ -50358,7 +50397,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="9" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>79</v>
@@ -50382,10 +50421,10 @@
         <v>26</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="K8" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
@@ -50399,7 +50438,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="9" t="s">
-        <v>2950</v>
+        <v>2952</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>85</v>
@@ -50423,10 +50462,10 @@
         <v>26</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="K10" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
@@ -50440,7 +50479,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="9" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>200</v>
@@ -50467,10 +50506,10 @@
         <v>39</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
       <c r="K12" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
@@ -50484,7 +50523,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="9" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>271</v>
@@ -50508,10 +50547,10 @@
         <v>26</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="K14" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
@@ -50525,7 +50564,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="9" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>276</v>
@@ -50549,27 +50588,27 @@
         <v>26</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="K16" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="N16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:18">
       <c r="A18" s="9" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>301</v>
@@ -50593,13 +50632,13 @@
         <v>26</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="K18" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="L18" t="s">
         <v>32</v>
@@ -50611,2308 +50650,2443 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:18">
       <c r="A20" s="9" t="s">
-        <v>2958</v>
+        <v>2960</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>2963</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2964</v>
+      </c>
+      <c r="N20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="9" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="E22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>2945</v>
       </c>
-      <c r="L20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="J22" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
         <v>400</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N22" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="9" t="s">
+    <row r="24" spans="1:18">
+      <c r="A24" s="9" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>2959</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>2957</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="K24" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>389</v>
+      </c>
+      <c r="N24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="9" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>2945</v>
       </c>
-      <c r="L22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" t="s">
-        <v>389</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="J26" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2968</v>
+      </c>
+      <c r="N26" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="9" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>955</v>
+      </c>
+      <c r="N28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="9" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L30" t="s">
+        <v>162</v>
+      </c>
+      <c r="M30" t="s">
+        <v>274</v>
+      </c>
+      <c r="N30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" t="s">
+        <v>2772</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="9" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
+        <v>2974</v>
+      </c>
+      <c r="N31" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="9" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K33" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="N33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="9" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>2981</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="K35" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1214</v>
+      </c>
+      <c r="N35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="9" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K37" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" t="s">
+        <v>2983</v>
+      </c>
+      <c r="N37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="9" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K39" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" t="s">
+        <v>2983</v>
+      </c>
+      <c r="N39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="9" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>2954</v>
+      </c>
+      <c r="K41" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L41" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" t="s">
+        <v>655</v>
+      </c>
+      <c r="N41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="9" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" t="s">
+        <v>955</v>
+      </c>
+      <c r="N43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="9" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K45" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" t="s">
+        <v>2988</v>
+      </c>
+      <c r="N45" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="9" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K47" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L47" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N47" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="9" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L49" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" t="s">
+        <v>779</v>
+      </c>
+      <c r="N49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="9" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K51" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L51" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" t="s">
+        <v>2992</v>
+      </c>
+      <c r="N51" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="9" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K53" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" t="s">
+        <v>369</v>
+      </c>
+      <c r="N53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="9" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="K55" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L55" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" t="s">
+        <v>2191</v>
+      </c>
+      <c r="N55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="9" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>2954</v>
+      </c>
+      <c r="K57" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L57" t="s">
+        <v>93</v>
+      </c>
+      <c r="M57" t="s">
+        <v>1512</v>
+      </c>
+      <c r="N57" t="s">
+        <v>77</v>
+      </c>
+      <c r="O57" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="9" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K59" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L59" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" t="s">
+        <v>374</v>
+      </c>
+      <c r="N59" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="9" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K61" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L61" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" t="s">
+        <v>1093</v>
+      </c>
+      <c r="N61" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="9" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="K63" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L63" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" t="s">
+        <v>918</v>
+      </c>
+      <c r="N63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="9" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K65" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L65" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" t="s">
+        <v>3003</v>
+      </c>
+      <c r="N65" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="9" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K67" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L67" t="s">
+        <v>32</v>
+      </c>
+      <c r="M67" t="s">
+        <v>697</v>
+      </c>
+      <c r="N67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="9" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>2954</v>
+      </c>
+      <c r="K69" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L69" t="s">
+        <v>32</v>
+      </c>
+      <c r="M69" t="s">
+        <v>1224</v>
+      </c>
+      <c r="N69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="9" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K71" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L71" t="s">
+        <v>32</v>
+      </c>
+      <c r="M71" t="s">
+        <v>1560</v>
+      </c>
+      <c r="N71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="9" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K73" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L73" t="s">
+        <v>32</v>
+      </c>
+      <c r="M73" t="s">
+        <v>2472</v>
+      </c>
+      <c r="N73" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="9" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K75" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L75" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" t="s">
+        <v>1389</v>
+      </c>
+      <c r="N75" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="9" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>2954</v>
+      </c>
+      <c r="K77" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L77" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" t="s">
+        <v>3010</v>
+      </c>
+      <c r="N77" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="9" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K79" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L79" t="s">
+        <v>32</v>
+      </c>
+      <c r="M79" t="s">
+        <v>1146</v>
+      </c>
+      <c r="N79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="9" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>2954</v>
+      </c>
+      <c r="K81" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L81" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" t="s">
+        <v>309</v>
+      </c>
+      <c r="N81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="9" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K83" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L83" t="s">
+        <v>32</v>
+      </c>
+      <c r="M83" t="s">
+        <v>3014</v>
+      </c>
+      <c r="N83" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="9" t="s">
-        <v>2960</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="C24" s="6" t="s">
+    <row r="85" spans="1:14">
+      <c r="A85" s="9" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="K85" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L85" t="s">
+        <v>32</v>
+      </c>
+      <c r="M85" t="s">
+        <v>1516</v>
+      </c>
+      <c r="N85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="9" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K87" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L87" t="s">
+        <v>32</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1516</v>
+      </c>
+      <c r="N87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="9" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="K89" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L89" t="s">
+        <v>32</v>
+      </c>
+      <c r="M89" t="s">
+        <v>3018</v>
+      </c>
+      <c r="N89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="9" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="K91" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L91" t="s">
+        <v>32</v>
+      </c>
+      <c r="M91" t="s">
+        <v>3020</v>
+      </c>
+      <c r="N91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="9" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>2954</v>
+      </c>
+      <c r="K93" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L93" t="s">
+        <v>32</v>
+      </c>
+      <c r="M93" t="s">
+        <v>242</v>
+      </c>
+      <c r="N93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="9" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="D95" s="6" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" s="6" t="s">
         <v>2945</v>
       </c>
-      <c r="L24" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" t="s">
-        <v>2961</v>
-      </c>
-      <c r="N24" t="s">
-        <v>2962</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="9" t="s">
-        <v>2963</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="6" t="s">
+      <c r="J95" s="6" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K95" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L95" t="s">
+        <v>32</v>
+      </c>
+      <c r="M95" t="s">
+        <v>1604</v>
+      </c>
+      <c r="N95" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="9" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K26" t="s">
+      <c r="J97" s="6" t="s">
+        <v>2954</v>
+      </c>
+      <c r="K97" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L97" t="s">
+        <v>32</v>
+      </c>
+      <c r="M97" t="s">
+        <v>997</v>
+      </c>
+      <c r="N97" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="9" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" s="6" t="s">
         <v>2945</v>
       </c>
-      <c r="L26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" t="s">
-        <v>955</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="K99" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L99" t="s">
+        <v>32</v>
+      </c>
+      <c r="M99" t="s">
+        <v>1832</v>
+      </c>
+      <c r="N99" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="9" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K101" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L101" t="s">
+        <v>32</v>
+      </c>
+      <c r="M101" t="s">
+        <v>3027</v>
+      </c>
+      <c r="N101" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="9" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K103" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L103" t="s">
+        <v>32</v>
+      </c>
+      <c r="M103" t="s">
+        <v>2937</v>
+      </c>
+      <c r="N103" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="9" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="K105" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L105" t="s">
+        <v>32</v>
+      </c>
+      <c r="M105" t="s">
+        <v>1304</v>
+      </c>
+      <c r="N105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="9" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K107" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L107" t="s">
+        <v>32</v>
+      </c>
+      <c r="M107" t="s">
+        <v>1186</v>
+      </c>
+      <c r="N107" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="9" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K109" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L109" t="s">
+        <v>32</v>
+      </c>
+      <c r="M109" t="s">
+        <v>1904</v>
+      </c>
+      <c r="N109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="9" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>2954</v>
+      </c>
+      <c r="K111" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L111" t="s">
+        <v>32</v>
+      </c>
+      <c r="M111" t="s">
+        <v>672</v>
+      </c>
+      <c r="N111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="9" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>2954</v>
+      </c>
+      <c r="K113" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L113" t="s">
+        <v>32</v>
+      </c>
+      <c r="M113" t="s">
+        <v>650</v>
+      </c>
+      <c r="N113" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" s="9" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K115" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L115" t="s">
+        <v>32</v>
+      </c>
+      <c r="M115" t="s">
+        <v>642</v>
+      </c>
+      <c r="N115" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="9" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K117" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L117" t="s">
+        <v>32</v>
+      </c>
+      <c r="M117" t="s">
+        <v>1224</v>
+      </c>
+      <c r="N117" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" s="9" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>2182</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K119" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L119" t="s">
+        <v>32</v>
+      </c>
+      <c r="M119" t="s">
+        <v>1284</v>
+      </c>
+      <c r="N119" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" s="9" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>2185</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K121" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L121" t="s">
+        <v>32</v>
+      </c>
+      <c r="M121" t="s">
+        <v>2186</v>
+      </c>
+      <c r="N121" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" s="9" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K123" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L123" t="s">
+        <v>32</v>
+      </c>
+      <c r="M123" t="s">
+        <v>348</v>
+      </c>
+      <c r="N123" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" s="9" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K125" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L125" t="s">
+        <v>93</v>
+      </c>
+      <c r="M125" t="s">
+        <v>2248</v>
+      </c>
+      <c r="N125" t="s">
+        <v>707</v>
+      </c>
+      <c r="O125" t="s">
+        <v>1552</v>
+      </c>
+      <c r="P125" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" s="9" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K127" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L127" t="s">
+        <v>32</v>
+      </c>
+      <c r="M127" t="s">
+        <v>546</v>
+      </c>
+      <c r="N127" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="9" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>2965</v>
-      </c>
-      <c r="K28" t="s">
+    <row r="129" spans="1:14">
+      <c r="A129" s="9" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>2355</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I129" s="6" t="s">
         <v>2945</v>
       </c>
-      <c r="L28" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" t="s">
-        <v>2966</v>
-      </c>
-      <c r="N28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="9" t="s">
-        <v>2967</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>2968</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>2969</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>2970</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="K30" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" t="s">
-        <v>1214</v>
-      </c>
-      <c r="N30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="9" t="s">
-        <v>2971</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K32" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L32" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" t="s">
-        <v>2972</v>
-      </c>
-      <c r="N32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="9" t="s">
-        <v>2973</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K34" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M34" t="s">
-        <v>2972</v>
-      </c>
-      <c r="N34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="9" t="s">
-        <v>2974</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>2952</v>
-      </c>
-      <c r="K36" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" t="s">
-        <v>655</v>
-      </c>
-      <c r="N36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="9" t="s">
-        <v>2975</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L38" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" t="s">
-        <v>955</v>
-      </c>
-      <c r="N38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="9" t="s">
-        <v>2976</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K40" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" t="s">
-        <v>2977</v>
-      </c>
-      <c r="N40" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="9" t="s">
-        <v>2978</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>725</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K42" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L42" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" t="s">
-        <v>1080</v>
-      </c>
-      <c r="N42" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="9" t="s">
-        <v>2979</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>2965</v>
-      </c>
-      <c r="K44" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" t="s">
-        <v>779</v>
-      </c>
-      <c r="N44" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="9" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>889</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K46" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L46" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" t="s">
-        <v>2981</v>
-      </c>
-      <c r="N46" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="9" t="s">
-        <v>2982</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K48" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L48" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" t="s">
-        <v>369</v>
-      </c>
-      <c r="N48" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="9" t="s">
-        <v>2983</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>2984</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>2985</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>2986</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="K50" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L50" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" t="s">
-        <v>2191</v>
-      </c>
-      <c r="N50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="9" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>953</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>954</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>2952</v>
-      </c>
-      <c r="K52" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L52" t="s">
-        <v>1150</v>
-      </c>
-      <c r="M52" t="s">
-        <v>1512</v>
-      </c>
-      <c r="N52" t="s">
-        <v>77</v>
-      </c>
-      <c r="O52" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="9" t="s">
-        <v>2988</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K54" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L54" t="s">
-        <v>32</v>
-      </c>
-      <c r="M54" t="s">
-        <v>374</v>
-      </c>
-      <c r="N54" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="9" t="s">
-        <v>2989</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K56" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L56" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" t="s">
-        <v>1093</v>
-      </c>
-      <c r="N56" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="9" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="K58" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L58" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" t="s">
-        <v>918</v>
-      </c>
-      <c r="N58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="9" t="s">
-        <v>2991</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K60" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L60" t="s">
-        <v>32</v>
-      </c>
-      <c r="M60" t="s">
-        <v>2992</v>
-      </c>
-      <c r="N60" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="9" t="s">
-        <v>2993</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K62" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L62" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62" t="s">
-        <v>697</v>
-      </c>
-      <c r="N62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="9" t="s">
-        <v>2994</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>2952</v>
-      </c>
-      <c r="K64" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L64" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" t="s">
-        <v>1224</v>
-      </c>
-      <c r="N64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="9" t="s">
-        <v>2995</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>995</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>2957</v>
-      </c>
-      <c r="K66" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L66" t="s">
-        <v>32</v>
-      </c>
-      <c r="M66" t="s">
-        <v>1560</v>
-      </c>
-      <c r="N66" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="9" t="s">
-        <v>2996</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>2965</v>
-      </c>
-      <c r="K68" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L68" t="s">
-        <v>32</v>
-      </c>
-      <c r="M68" t="s">
-        <v>2472</v>
-      </c>
-      <c r="N68" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="9" t="s">
-        <v>2997</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>2965</v>
-      </c>
-      <c r="K70" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L70" t="s">
-        <v>32</v>
-      </c>
-      <c r="M70" t="s">
-        <v>1389</v>
-      </c>
-      <c r="N70" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="9" t="s">
-        <v>2998</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>2952</v>
-      </c>
-      <c r="K72" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L72" t="s">
-        <v>32</v>
-      </c>
-      <c r="M72" t="s">
-        <v>2999</v>
-      </c>
-      <c r="N72" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="9" t="s">
-        <v>3000</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>1427</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>2957</v>
-      </c>
-      <c r="K74" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L74" t="s">
-        <v>32</v>
-      </c>
-      <c r="M74" t="s">
-        <v>1146</v>
-      </c>
-      <c r="N74" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="9" t="s">
-        <v>3001</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>1433</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>2952</v>
-      </c>
-      <c r="K76" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L76" t="s">
-        <v>32</v>
-      </c>
-      <c r="M76" t="s">
-        <v>309</v>
-      </c>
-      <c r="N76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="9" t="s">
-        <v>3002</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K78" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L78" t="s">
-        <v>32</v>
-      </c>
-      <c r="M78" t="s">
-        <v>3003</v>
-      </c>
-      <c r="N78" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="9" t="s">
-        <v>3004</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="K80" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L80" t="s">
-        <v>32</v>
-      </c>
-      <c r="M80" t="s">
-        <v>1516</v>
-      </c>
-      <c r="N80" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="9" t="s">
-        <v>3005</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K82" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L82" t="s">
-        <v>32</v>
-      </c>
-      <c r="M82" t="s">
-        <v>1516</v>
-      </c>
-      <c r="N82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="9" t="s">
-        <v>3006</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>935</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="K84" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L84" t="s">
-        <v>32</v>
-      </c>
-      <c r="M84" t="s">
-        <v>3007</v>
-      </c>
-      <c r="N84" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="9" t="s">
-        <v>3008</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="K86" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L86" t="s">
-        <v>32</v>
-      </c>
-      <c r="M86" t="s">
-        <v>3009</v>
-      </c>
-      <c r="N86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="9" t="s">
-        <v>3010</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>2952</v>
-      </c>
-      <c r="K88" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L88" t="s">
-        <v>32</v>
-      </c>
-      <c r="M88" t="s">
-        <v>242</v>
-      </c>
-      <c r="N88" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90" s="9" t="s">
-        <v>3011</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>2965</v>
-      </c>
-      <c r="K90" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L90" t="s">
-        <v>32</v>
-      </c>
-      <c r="M90" t="s">
-        <v>1604</v>
-      </c>
-      <c r="N90" t="s">
-        <v>3012</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="9" t="s">
-        <v>3013</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>2952</v>
-      </c>
-      <c r="K92" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L92" t="s">
-        <v>32</v>
-      </c>
-      <c r="M92" t="s">
-        <v>997</v>
-      </c>
-      <c r="N92" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" s="9" t="s">
-        <v>3014</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>1655</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="K94" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L94" t="s">
-        <v>32</v>
-      </c>
-      <c r="M94" t="s">
-        <v>1832</v>
-      </c>
-      <c r="N94" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" s="9" t="s">
-        <v>3015</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>1757</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J96" s="6" t="s">
-        <v>2957</v>
-      </c>
-      <c r="K96" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L96" t="s">
-        <v>32</v>
-      </c>
-      <c r="M96" t="s">
-        <v>3016</v>
-      </c>
-      <c r="N96" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98" s="9" t="s">
-        <v>3017</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>1786</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J98" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K98" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L98" t="s">
-        <v>32</v>
-      </c>
-      <c r="M98" t="s">
-        <v>2935</v>
-      </c>
-      <c r="N98" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" s="9" t="s">
-        <v>3018</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>1825</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="K100" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L100" t="s">
-        <v>32</v>
-      </c>
-      <c r="M100" t="s">
-        <v>1304</v>
-      </c>
-      <c r="N100" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102" s="9" t="s">
-        <v>3019</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>1884</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J102" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K102" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L102" t="s">
-        <v>32</v>
-      </c>
-      <c r="M102" t="s">
-        <v>1186</v>
-      </c>
-      <c r="N102" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
-      <c r="A104" s="9" t="s">
-        <v>3020</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>1902</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J104" s="6" t="s">
-        <v>2957</v>
-      </c>
-      <c r="K104" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L104" t="s">
-        <v>32</v>
-      </c>
-      <c r="M104" t="s">
-        <v>1904</v>
-      </c>
-      <c r="N104" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
-      <c r="A106" s="9" t="s">
-        <v>3021</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>1907</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J106" s="6" t="s">
-        <v>2952</v>
-      </c>
-      <c r="K106" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L106" t="s">
-        <v>32</v>
-      </c>
-      <c r="M106" t="s">
-        <v>672</v>
-      </c>
-      <c r="N106" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
-      <c r="A108" s="9" t="s">
-        <v>3022</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>2053</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>2054</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>2952</v>
-      </c>
-      <c r="K108" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L108" t="s">
-        <v>32</v>
-      </c>
-      <c r="M108" t="s">
-        <v>650</v>
-      </c>
-      <c r="N108" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
-      <c r="A110" s="9" t="s">
-        <v>3023</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>2071</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>2072</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K110" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L110" t="s">
-        <v>32</v>
-      </c>
-      <c r="M110" t="s">
-        <v>642</v>
-      </c>
-      <c r="N110" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="A112" s="9" t="s">
-        <v>3024</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>2108</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>2109</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>2110</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K112" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L112" t="s">
-        <v>32</v>
-      </c>
-      <c r="M112" t="s">
-        <v>1224</v>
-      </c>
-      <c r="N112" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16">
-      <c r="A114" s="9" t="s">
-        <v>3025</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>2180</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>2181</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>2182</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J114" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K114" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L114" t="s">
-        <v>32</v>
-      </c>
-      <c r="M114" t="s">
-        <v>1284</v>
-      </c>
-      <c r="N114" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16">
-      <c r="A116" s="9" t="s">
-        <v>3026</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>2184</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>2185</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J116" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K116" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L116" t="s">
-        <v>32</v>
-      </c>
-      <c r="M116" t="s">
-        <v>2186</v>
-      </c>
-      <c r="N116" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
-      <c r="A118" s="9" t="s">
-        <v>3027</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>2232</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>2049</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>2233</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J118" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K118" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L118" t="s">
-        <v>32</v>
-      </c>
-      <c r="M118" t="s">
-        <v>348</v>
-      </c>
-      <c r="N118" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16">
-      <c r="A120" s="9" t="s">
-        <v>3028</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>2245</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>2246</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>2247</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J120" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K120" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L120" t="s">
-        <v>93</v>
-      </c>
-      <c r="M120" t="s">
-        <v>2248</v>
-      </c>
-      <c r="N120" t="s">
-        <v>707</v>
-      </c>
-      <c r="O120" t="s">
-        <v>1552</v>
-      </c>
-      <c r="P120" t="s">
+      <c r="J129" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K129" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L129" t="s">
+        <v>32</v>
+      </c>
+      <c r="M129" t="s">
         <v>2250</v>
       </c>
-    </row>
-    <row r="122" spans="1:16">
-      <c r="A122" s="9" t="s">
-        <v>3029</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>2348</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>2345</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J122" s="6" t="s">
-        <v>2965</v>
-      </c>
-      <c r="K122" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L122" t="s">
-        <v>32</v>
-      </c>
-      <c r="M122" t="s">
-        <v>546</v>
-      </c>
-      <c r="N122" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
-      <c r="A124" s="9" t="s">
-        <v>3030</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>2354</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>2355</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I124" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J124" s="6" t="s">
-        <v>2944</v>
-      </c>
-      <c r="K124" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L124" t="s">
-        <v>32</v>
-      </c>
-      <c r="M124" t="s">
-        <v>2250</v>
-      </c>
-      <c r="N124" t="s">
+      <c r="N129" t="s">
         <v>729</v>
       </c>
     </row>
@@ -52948,100 +53122,106 @@
     <hyperlink ref="B28" r:id="rId28"/>
     <hyperlink ref="A30" r:id="rId29"/>
     <hyperlink ref="B30" r:id="rId30"/>
-    <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="B32" r:id="rId32"/>
-    <hyperlink ref="A34" r:id="rId33"/>
-    <hyperlink ref="B34" r:id="rId34"/>
-    <hyperlink ref="A36" r:id="rId35"/>
-    <hyperlink ref="B36" r:id="rId36"/>
-    <hyperlink ref="A38" r:id="rId37"/>
-    <hyperlink ref="B38" r:id="rId38"/>
-    <hyperlink ref="A40" r:id="rId39"/>
-    <hyperlink ref="B40" r:id="rId40"/>
-    <hyperlink ref="A42" r:id="rId41"/>
-    <hyperlink ref="B42" r:id="rId42"/>
-    <hyperlink ref="A44" r:id="rId43"/>
-    <hyperlink ref="B44" r:id="rId44"/>
-    <hyperlink ref="A46" r:id="rId45"/>
-    <hyperlink ref="B46" r:id="rId46"/>
-    <hyperlink ref="A48" r:id="rId47"/>
-    <hyperlink ref="B48" r:id="rId48"/>
-    <hyperlink ref="A50" r:id="rId49"/>
-    <hyperlink ref="B50" r:id="rId50"/>
-    <hyperlink ref="A52" r:id="rId51"/>
-    <hyperlink ref="B52" r:id="rId52"/>
-    <hyperlink ref="A54" r:id="rId53"/>
-    <hyperlink ref="B54" r:id="rId54"/>
-    <hyperlink ref="A56" r:id="rId55"/>
-    <hyperlink ref="B56" r:id="rId56"/>
-    <hyperlink ref="A58" r:id="rId57"/>
-    <hyperlink ref="B58" r:id="rId58"/>
-    <hyperlink ref="A60" r:id="rId59"/>
-    <hyperlink ref="B60" r:id="rId60"/>
-    <hyperlink ref="A62" r:id="rId61"/>
-    <hyperlink ref="B62" r:id="rId62"/>
-    <hyperlink ref="A64" r:id="rId63"/>
-    <hyperlink ref="B64" r:id="rId64"/>
-    <hyperlink ref="A66" r:id="rId65"/>
-    <hyperlink ref="B66" r:id="rId66"/>
-    <hyperlink ref="A68" r:id="rId67"/>
-    <hyperlink ref="B68" r:id="rId68"/>
-    <hyperlink ref="A70" r:id="rId69"/>
-    <hyperlink ref="B70" r:id="rId70"/>
-    <hyperlink ref="A72" r:id="rId71"/>
-    <hyperlink ref="B72" r:id="rId72"/>
-    <hyperlink ref="A74" r:id="rId73"/>
-    <hyperlink ref="B74" r:id="rId74"/>
-    <hyperlink ref="A76" r:id="rId75"/>
-    <hyperlink ref="B76" r:id="rId76"/>
-    <hyperlink ref="A78" r:id="rId77"/>
-    <hyperlink ref="B78" r:id="rId78"/>
-    <hyperlink ref="A80" r:id="rId79"/>
-    <hyperlink ref="B80" r:id="rId80"/>
-    <hyperlink ref="A82" r:id="rId81"/>
-    <hyperlink ref="B82" r:id="rId82"/>
-    <hyperlink ref="A84" r:id="rId83"/>
-    <hyperlink ref="B84" r:id="rId84"/>
-    <hyperlink ref="A86" r:id="rId85"/>
-    <hyperlink ref="B86" r:id="rId86"/>
-    <hyperlink ref="A88" r:id="rId87"/>
-    <hyperlink ref="B88" r:id="rId88"/>
-    <hyperlink ref="A90" r:id="rId89"/>
-    <hyperlink ref="B90" r:id="rId90"/>
-    <hyperlink ref="A92" r:id="rId91"/>
-    <hyperlink ref="B92" r:id="rId92"/>
-    <hyperlink ref="A94" r:id="rId93"/>
-    <hyperlink ref="B94" r:id="rId94"/>
-    <hyperlink ref="A96" r:id="rId95"/>
-    <hyperlink ref="B96" r:id="rId96"/>
-    <hyperlink ref="A98" r:id="rId97"/>
-    <hyperlink ref="B98" r:id="rId98"/>
-    <hyperlink ref="A100" r:id="rId99"/>
-    <hyperlink ref="B100" r:id="rId100"/>
-    <hyperlink ref="A102" r:id="rId101"/>
-    <hyperlink ref="B102" r:id="rId102"/>
-    <hyperlink ref="A104" r:id="rId103"/>
-    <hyperlink ref="B104" r:id="rId104"/>
-    <hyperlink ref="A106" r:id="rId105"/>
-    <hyperlink ref="B106" r:id="rId106"/>
-    <hyperlink ref="A108" r:id="rId107"/>
-    <hyperlink ref="B108" r:id="rId108"/>
-    <hyperlink ref="A110" r:id="rId109"/>
-    <hyperlink ref="B110" r:id="rId110"/>
-    <hyperlink ref="A112" r:id="rId111"/>
-    <hyperlink ref="B112" r:id="rId112"/>
-    <hyperlink ref="A114" r:id="rId113"/>
-    <hyperlink ref="B114" r:id="rId114"/>
-    <hyperlink ref="A116" r:id="rId115"/>
-    <hyperlink ref="B116" r:id="rId116"/>
-    <hyperlink ref="A118" r:id="rId117"/>
-    <hyperlink ref="B118" r:id="rId118"/>
-    <hyperlink ref="A120" r:id="rId119"/>
-    <hyperlink ref="B120" r:id="rId120"/>
-    <hyperlink ref="A122" r:id="rId121"/>
-    <hyperlink ref="B122" r:id="rId122"/>
-    <hyperlink ref="A124" r:id="rId123"/>
-    <hyperlink ref="B124" r:id="rId124"/>
+    <hyperlink ref="A31" r:id="rId31"/>
+    <hyperlink ref="B31" r:id="rId32"/>
+    <hyperlink ref="A33" r:id="rId33"/>
+    <hyperlink ref="B33" r:id="rId34"/>
+    <hyperlink ref="A35" r:id="rId35"/>
+    <hyperlink ref="B35" r:id="rId36"/>
+    <hyperlink ref="A37" r:id="rId37"/>
+    <hyperlink ref="B37" r:id="rId38"/>
+    <hyperlink ref="A39" r:id="rId39"/>
+    <hyperlink ref="B39" r:id="rId40"/>
+    <hyperlink ref="A41" r:id="rId41"/>
+    <hyperlink ref="B41" r:id="rId42"/>
+    <hyperlink ref="A43" r:id="rId43"/>
+    <hyperlink ref="B43" r:id="rId44"/>
+    <hyperlink ref="A45" r:id="rId45"/>
+    <hyperlink ref="B45" r:id="rId46"/>
+    <hyperlink ref="A47" r:id="rId47"/>
+    <hyperlink ref="B47" r:id="rId48"/>
+    <hyperlink ref="A49" r:id="rId49"/>
+    <hyperlink ref="B49" r:id="rId50"/>
+    <hyperlink ref="A51" r:id="rId51"/>
+    <hyperlink ref="B51" r:id="rId52"/>
+    <hyperlink ref="A53" r:id="rId53"/>
+    <hyperlink ref="B53" r:id="rId54"/>
+    <hyperlink ref="A55" r:id="rId55"/>
+    <hyperlink ref="B55" r:id="rId56"/>
+    <hyperlink ref="A57" r:id="rId57"/>
+    <hyperlink ref="B57" r:id="rId58"/>
+    <hyperlink ref="A59" r:id="rId59"/>
+    <hyperlink ref="B59" r:id="rId60"/>
+    <hyperlink ref="A61" r:id="rId61"/>
+    <hyperlink ref="B61" r:id="rId62"/>
+    <hyperlink ref="A63" r:id="rId63"/>
+    <hyperlink ref="B63" r:id="rId64"/>
+    <hyperlink ref="A65" r:id="rId65"/>
+    <hyperlink ref="B65" r:id="rId66"/>
+    <hyperlink ref="A67" r:id="rId67"/>
+    <hyperlink ref="B67" r:id="rId68"/>
+    <hyperlink ref="A69" r:id="rId69"/>
+    <hyperlink ref="B69" r:id="rId70"/>
+    <hyperlink ref="A71" r:id="rId71"/>
+    <hyperlink ref="B71" r:id="rId72"/>
+    <hyperlink ref="A73" r:id="rId73"/>
+    <hyperlink ref="B73" r:id="rId74"/>
+    <hyperlink ref="A75" r:id="rId75"/>
+    <hyperlink ref="B75" r:id="rId76"/>
+    <hyperlink ref="A77" r:id="rId77"/>
+    <hyperlink ref="B77" r:id="rId78"/>
+    <hyperlink ref="A79" r:id="rId79"/>
+    <hyperlink ref="B79" r:id="rId80"/>
+    <hyperlink ref="A81" r:id="rId81"/>
+    <hyperlink ref="B81" r:id="rId82"/>
+    <hyperlink ref="A83" r:id="rId83"/>
+    <hyperlink ref="B83" r:id="rId84"/>
+    <hyperlink ref="A85" r:id="rId85"/>
+    <hyperlink ref="B85" r:id="rId86"/>
+    <hyperlink ref="A87" r:id="rId87"/>
+    <hyperlink ref="B87" r:id="rId88"/>
+    <hyperlink ref="A89" r:id="rId89"/>
+    <hyperlink ref="B89" r:id="rId90"/>
+    <hyperlink ref="A91" r:id="rId91"/>
+    <hyperlink ref="B91" r:id="rId92"/>
+    <hyperlink ref="A93" r:id="rId93"/>
+    <hyperlink ref="B93" r:id="rId94"/>
+    <hyperlink ref="A95" r:id="rId95"/>
+    <hyperlink ref="B95" r:id="rId96"/>
+    <hyperlink ref="A97" r:id="rId97"/>
+    <hyperlink ref="B97" r:id="rId98"/>
+    <hyperlink ref="A99" r:id="rId99"/>
+    <hyperlink ref="B99" r:id="rId100"/>
+    <hyperlink ref="A101" r:id="rId101"/>
+    <hyperlink ref="B101" r:id="rId102"/>
+    <hyperlink ref="A103" r:id="rId103"/>
+    <hyperlink ref="B103" r:id="rId104"/>
+    <hyperlink ref="A105" r:id="rId105"/>
+    <hyperlink ref="B105" r:id="rId106"/>
+    <hyperlink ref="A107" r:id="rId107"/>
+    <hyperlink ref="B107" r:id="rId108"/>
+    <hyperlink ref="A109" r:id="rId109"/>
+    <hyperlink ref="B109" r:id="rId110"/>
+    <hyperlink ref="A111" r:id="rId111"/>
+    <hyperlink ref="B111" r:id="rId112"/>
+    <hyperlink ref="A113" r:id="rId113"/>
+    <hyperlink ref="B113" r:id="rId114"/>
+    <hyperlink ref="A115" r:id="rId115"/>
+    <hyperlink ref="B115" r:id="rId116"/>
+    <hyperlink ref="A117" r:id="rId117"/>
+    <hyperlink ref="B117" r:id="rId118"/>
+    <hyperlink ref="A119" r:id="rId119"/>
+    <hyperlink ref="B119" r:id="rId120"/>
+    <hyperlink ref="A121" r:id="rId121"/>
+    <hyperlink ref="B121" r:id="rId122"/>
+    <hyperlink ref="A123" r:id="rId123"/>
+    <hyperlink ref="B123" r:id="rId124"/>
+    <hyperlink ref="A125" r:id="rId125"/>
+    <hyperlink ref="B125" r:id="rId126"/>
+    <hyperlink ref="A127" r:id="rId127"/>
+    <hyperlink ref="B127" r:id="rId128"/>
+    <hyperlink ref="A129" r:id="rId129"/>
+    <hyperlink ref="B129" r:id="rId130"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53122,7 +53302,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="9" t="s">
-        <v>3031</v>
+        <v>3042</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2414</v>
@@ -53146,16 +53326,16 @@
         <v>26</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K2" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>3034</v>
+        <v>3045</v>
       </c>
       <c r="N2" t="s">
         <v>707</v>
@@ -53163,7 +53343,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="9" t="s">
-        <v>3035</v>
+        <v>3046</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>2487</v>
@@ -53187,10 +53367,10 @@
         <v>26</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K4" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
@@ -53204,7 +53384,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="9" t="s">
-        <v>3036</v>
+        <v>3047</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>2502</v>
@@ -53228,16 +53408,16 @@
         <v>26</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K6" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>3037</v>
+        <v>3048</v>
       </c>
       <c r="N6" t="s">
         <v>719</v>
@@ -53245,7 +53425,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="9" t="s">
-        <v>3038</v>
+        <v>3049</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>2496</v>
@@ -53269,16 +53449,16 @@
         <v>26</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K8" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>3037</v>
+        <v>3048</v>
       </c>
       <c r="N8" t="s">
         <v>719</v>
@@ -53286,7 +53466,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="9" t="s">
-        <v>3039</v>
+        <v>3050</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>2527</v>
@@ -53310,10 +53490,10 @@
         <v>26</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K10" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
@@ -53327,7 +53507,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="9" t="s">
-        <v>3040</v>
+        <v>3051</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>2532</v>
@@ -53351,10 +53531,10 @@
         <v>26</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K12" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
@@ -53368,34 +53548,34 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="9" t="s">
-        <v>3041</v>
+        <v>3052</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>3042</v>
+        <v>3053</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>3043</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="K14" t="s">
         <v>3044</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>3032</v>
-      </c>
-      <c r="K14" t="s">
-        <v>3033</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
@@ -53409,7 +53589,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="9" t="s">
-        <v>3045</v>
+        <v>3056</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>2612</v>
@@ -53433,10 +53613,10 @@
         <v>26</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K16" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
@@ -53450,7 +53630,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="9" t="s">
-        <v>3046</v>
+        <v>3057</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>2671</v>
@@ -53474,10 +53654,10 @@
         <v>26</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K18" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L18" t="s">
         <v>2624</v>
@@ -53489,12 +53669,12 @@
         <v>76</v>
       </c>
       <c r="P18" t="s">
-        <v>3047</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="9" t="s">
-        <v>3048</v>
+        <v>3059</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>2675</v>
@@ -53518,16 +53698,16 @@
         <v>26</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K20" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L20" t="s">
         <v>2624</v>
       </c>
       <c r="M20" t="s">
-        <v>3049</v>
+        <v>3060</v>
       </c>
       <c r="N20" t="s">
         <v>58</v>
@@ -53538,7 +53718,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="9" t="s">
-        <v>3050</v>
+        <v>3061</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>2756</v>
@@ -53562,10 +53742,10 @@
         <v>26</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K22" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L22" t="s">
         <v>32</v>
@@ -53579,16 +53759,16 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="9" t="s">
-        <v>3051</v>
+        <v>3062</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>913</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>25</v>
@@ -53603,16 +53783,16 @@
         <v>26</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K24" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>3052</v>
+        <v>3063</v>
       </c>
       <c r="N24" t="s">
         <v>58</v>
@@ -53620,16 +53800,16 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="9" t="s">
-        <v>3053</v>
+        <v>3064</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>25</v>
@@ -53644,10 +53824,10 @@
         <v>26</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K26" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
@@ -53661,16 +53841,16 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="9" t="s">
-        <v>3054</v>
+        <v>3065</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>25</v>
@@ -53685,10 +53865,10 @@
         <v>26</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K28" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L28" t="s">
         <v>32</v>
@@ -53702,13 +53882,13 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="9" t="s">
-        <v>3055</v>
+        <v>3066</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>1817</v>
@@ -53726,10 +53906,10 @@
         <v>26</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K30" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L30" t="s">
         <v>32</v>
@@ -53743,16 +53923,16 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="9" t="s">
-        <v>3056</v>
+        <v>3067</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1239</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>25</v>
@@ -53767,16 +53947,16 @@
         <v>26</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K32" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L32" t="s">
         <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>3057</v>
+        <v>3068</v>
       </c>
       <c r="N32" t="s">
         <v>903</v>
@@ -53784,10 +53964,10 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="9" t="s">
-        <v>3058</v>
+        <v>3069</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>2885</v>
+        <v>2887</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>793</v>
@@ -53808,30 +53988,30 @@
         <v>26</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K34" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L34" t="s">
         <v>2624</v>
       </c>
       <c r="M34" t="s">
-        <v>3059</v>
+        <v>3070</v>
       </c>
       <c r="N34" t="s">
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>3060</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="9" t="s">
-        <v>3061</v>
+        <v>3072</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>472</v>
@@ -53852,10 +54032,10 @@
         <v>26</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K36" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L36" t="s">
         <v>32</v>
@@ -53869,16 +54049,16 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="9" t="s">
-        <v>3062</v>
+        <v>3073</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>726</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>25</v>
@@ -53893,10 +54073,10 @@
         <v>26</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>3032</v>
+        <v>3043</v>
       </c>
       <c r="K38" t="s">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="L38" t="s">
         <v>2624</v>

--- a/excel_reports/Rhee_Cano.xlsx
+++ b/excel_reports/Rhee_Cano.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13259" uniqueCount="3182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13302" uniqueCount="3191">
   <si>
     <t>Policy Record</t>
   </si>
@@ -9155,6 +9155,21 @@
     <t>PrimeStar® Access</t>
   </si>
   <si>
+    <t>3907342116</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Seifert</t>
+  </si>
+  <si>
+    <t>PrimeStar® Value</t>
+  </si>
+  <si>
+    <t>11-15-2022</t>
+  </si>
+  <si>
     <t>3172361648</t>
   </si>
   <si>
@@ -9171,6 +9186,18 @@
   </si>
   <si>
     <t>3172133414</t>
+  </si>
+  <si>
+    <t>3172133422</t>
+  </si>
+  <si>
+    <t>switched to Ameritas</t>
+  </si>
+  <si>
+    <t>3356736096</t>
+  </si>
+  <si>
+    <t>10-18-2022</t>
   </si>
   <si>
     <t>3172447264</t>
@@ -9979,12 +10006,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>3153</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>3154</v>
+        <v>3163</v>
       </c>
       <c r="B2" s="2">
         <v>542</v>
@@ -9992,7 +10019,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>3155</v>
+        <v>3164</v>
       </c>
       <c r="B3" s="2">
         <v>630</v>
@@ -10000,18 +10027,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>3156</v>
+        <v>3165</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3157</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>3158</v>
+        <v>3167</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -10020,7 +10047,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>3159</v>
+        <v>3168</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -10028,30 +10055,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>3160</v>
+        <v>3169</v>
       </c>
       <c r="B7" s="2">
         <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3161</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>3162</v>
+        <v>3171</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3163</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>3164</v>
+        <v>3173</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -10060,12 +10087,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>3165</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>3166</v>
+        <v>3175</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
@@ -10073,20 +10100,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>3167</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>3168</v>
+        <v>3177</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3181</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>3169</v>
+        <v>3178</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -10095,12 +10122,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>3170</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>3171</v>
+        <v>3180</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -10108,15 +10135,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>3172</v>
+        <v>3181</v>
       </c>
       <c r="B21">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>3173</v>
+        <v>3182</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -10124,7 +10151,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>3174</v>
+        <v>3183</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -10133,7 +10160,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>3175</v>
+        <v>3184</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -10142,7 +10169,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>3176</v>
+        <v>3185</v>
       </c>
       <c r="B26">
         <v>11</v>
@@ -10150,7 +10177,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>3177</v>
+        <v>3186</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -10158,7 +10185,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>3178</v>
+        <v>3187</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -10166,7 +10193,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>3179</v>
+        <v>3188</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -10175,7 +10202,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>3180</v>
+        <v>3189</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -51404,7 +51431,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T128"/>
+  <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -51809,7 +51836,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:18">
       <c r="A18" s="7" t="s">
         <v>3042</v>
       </c>
@@ -51853,24 +51880,24 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:18">
       <c r="A20" s="7" t="s">
         <v>3044</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>547</v>
+        <v>414</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>548</v>
+        <v>415</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>549</v>
+        <v>416</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>156</v>
+        <v>3045</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>157</v>
+        <v>3046</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>156</v>
@@ -51882,7 +51909,7 @@
         <v>3029</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>3030</v>
+        <v>3047</v>
       </c>
       <c r="K20" t="s">
         <v>3031</v>
@@ -51891,24 +51918,24 @@
         <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>504</v>
+        <v>3048</v>
       </c>
       <c r="N20" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="7" t="s">
-        <v>3045</v>
+        <v>3049</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>156</v>
@@ -51926,7 +51953,7 @@
         <v>3029</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>3043</v>
+        <v>3030</v>
       </c>
       <c r="K22" t="s">
         <v>3031</v>
@@ -51935,24 +51962,24 @@
         <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="N22" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="7" t="s">
-        <v>3046</v>
+        <v>3050</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>320</v>
+        <v>571</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>621</v>
+        <v>572</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>156</v>
@@ -51970,7 +51997,7 @@
         <v>3029</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>3030</v>
+        <v>3043</v>
       </c>
       <c r="K24" t="s">
         <v>3031</v>
@@ -51979,24 +52006,24 @@
         <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>3047</v>
+        <v>488</v>
       </c>
       <c r="N24" t="s">
-        <v>3048</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="7" t="s">
-        <v>3049</v>
+        <v>3051</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>198</v>
+        <v>320</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>653</v>
+        <v>621</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>156</v>
@@ -52011,7 +52038,10 @@
         <v>157</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>80</v>
+        <v>3029</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>3030</v>
       </c>
       <c r="K26" t="s">
         <v>3031</v>
@@ -52020,24 +52050,24 @@
         <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>1053</v>
+        <v>3052</v>
       </c>
       <c r="N26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="7" t="s">
-        <v>3050</v>
+        <v>3054</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>711</v>
+        <v>652</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>712</v>
+        <v>198</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>713</v>
+        <v>653</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>156</v>
@@ -52052,10 +52082,7 @@
         <v>157</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>3051</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s">
         <v>3031</v>
@@ -52064,24 +52091,24 @@
         <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>3052</v>
+        <v>1053</v>
       </c>
       <c r="N28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="7" t="s">
-        <v>3053</v>
+        <v>3055</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>3054</v>
+        <v>696</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>3055</v>
+        <v>286</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>3056</v>
+        <v>697</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>156</v>
@@ -52096,2153 +52123,2288 @@
         <v>157</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>3029</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s">
         <v>3031</v>
       </c>
       <c r="L30" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="M30" t="s">
+        <v>383</v>
+      </c>
+      <c r="N30" t="s">
+        <v>92</v>
+      </c>
+      <c r="P30" t="s">
+        <v>85</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="7" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>3045</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>3046</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>3043</v>
+      </c>
+      <c r="K31" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L31" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" t="s">
+        <v>3058</v>
+      </c>
+      <c r="N31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="7" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>3060</v>
+      </c>
+      <c r="K33" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" t="s">
+        <v>3061</v>
+      </c>
+      <c r="N33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="7" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>3065</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="K35" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" t="s">
         <v>1309</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="7" t="s">
-        <v>3057</v>
-      </c>
-      <c r="B32" s="7" t="s">
+    <row r="37" spans="1:14">
+      <c r="A37" s="7" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I32" s="8" t="s">
+      <c r="E37" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>3029</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J37" s="8" t="s">
         <v>3030</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K37" t="s">
         <v>3031</v>
       </c>
-      <c r="L32" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" t="s">
-        <v>3058</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="L37" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" t="s">
+        <v>3067</v>
+      </c>
+      <c r="N37" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="7" t="s">
-        <v>3059</v>
-      </c>
-      <c r="B34" s="7" t="s">
+    <row r="39" spans="1:14">
+      <c r="A39" s="7" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I34" s="8" t="s">
+      <c r="E39" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>3029</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J39" s="8" t="s">
         <v>3030</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K39" t="s">
         <v>3031</v>
       </c>
-      <c r="L34" t="s">
-        <v>18</v>
-      </c>
-      <c r="M34" t="s">
-        <v>3058</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="L39" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" t="s">
+        <v>3067</v>
+      </c>
+      <c r="N39" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="7" t="s">
+    <row r="41" spans="1:14">
+      <c r="A41" s="7" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>3038</v>
+      </c>
+      <c r="K41" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L41" t="s">
+        <v>119</v>
+      </c>
+      <c r="M41" t="s">
+        <v>761</v>
+      </c>
+      <c r="N41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="7" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L43" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="7" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K45" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L45" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" t="s">
+        <v>3072</v>
+      </c>
+      <c r="N45" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="7" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K47" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="7" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J49" s="8" t="s">
         <v>3060</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I36" s="8" t="s">
+      <c r="K49" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L49" t="s">
+        <v>18</v>
+      </c>
+      <c r="M49" t="s">
+        <v>884</v>
+      </c>
+      <c r="N49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="7" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K51" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L51" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" t="s">
+        <v>3076</v>
+      </c>
+      <c r="N51" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="7" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K53" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L53" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" t="s">
+        <v>470</v>
+      </c>
+      <c r="N53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="7" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>3080</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>3081</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="K55" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L55" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" t="s">
+        <v>2271</v>
+      </c>
+      <c r="N55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="7" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I57" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J57" s="8" t="s">
         <v>3038</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K57" t="s">
         <v>3031</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L57" t="s">
         <v>119</v>
       </c>
-      <c r="M36" t="s">
-        <v>761</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="M57" t="s">
+        <v>1599</v>
+      </c>
+      <c r="N57" t="s">
+        <v>201</v>
+      </c>
+      <c r="O57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="7" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K59" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" t="s">
+        <v>59</v>
+      </c>
+      <c r="N59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="7" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K61" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L61" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" t="s">
+        <v>1189</v>
+      </c>
+      <c r="N61" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="7" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="K63" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L63" t="s">
+        <v>18</v>
+      </c>
+      <c r="M63" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="7" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K65" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L65" t="s">
+        <v>3087</v>
+      </c>
+      <c r="M65" t="s">
+        <v>104</v>
+      </c>
+      <c r="N65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="7" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K67" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L67" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" t="s">
+        <v>3089</v>
+      </c>
+      <c r="N67" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="7" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K69" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L69" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" t="s">
+        <v>803</v>
+      </c>
+      <c r="N69" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="7" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>3038</v>
+      </c>
+      <c r="K71" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L71" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" t="s">
+        <v>1319</v>
+      </c>
+      <c r="N71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="7" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>3043</v>
+      </c>
+      <c r="K73" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L73" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" t="s">
+        <v>1644</v>
+      </c>
+      <c r="N73" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="7" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>3060</v>
+      </c>
+      <c r="K75" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L75" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" t="s">
+        <v>2549</v>
+      </c>
+      <c r="N75" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="7" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>3060</v>
+      </c>
+      <c r="K77" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L77" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" t="s">
+        <v>1479</v>
+      </c>
+      <c r="N77" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="7" t="s">
-        <v>3061</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I38" s="8" t="s">
+    <row r="79" spans="1:14">
+      <c r="A79" s="7" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I79" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="K38" t="s">
+      <c r="J79" s="8" t="s">
+        <v>3038</v>
+      </c>
+      <c r="K79" t="s">
         <v>3031</v>
       </c>
-      <c r="L38" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" t="s">
-        <v>1053</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="L79" t="s">
+        <v>18</v>
+      </c>
+      <c r="M79" t="s">
+        <v>3096</v>
+      </c>
+      <c r="N79" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="7" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>3043</v>
+      </c>
+      <c r="K81" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L81" t="s">
+        <v>18</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1241</v>
+      </c>
+      <c r="N81" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="7" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>3038</v>
+      </c>
+      <c r="K83" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L83" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" t="s">
+        <v>417</v>
+      </c>
+      <c r="N83" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="7" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K85" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L85" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" t="s">
+        <v>3100</v>
+      </c>
+      <c r="N85" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="7" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="K87" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L87" t="s">
+        <v>18</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1603</v>
+      </c>
+      <c r="N87" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K89" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L89" t="s">
+        <v>18</v>
+      </c>
+      <c r="M89" t="s">
+        <v>1603</v>
+      </c>
+      <c r="N89" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="7" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="K91" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L91" t="s">
+        <v>18</v>
+      </c>
+      <c r="M91" t="s">
+        <v>3104</v>
+      </c>
+      <c r="N91" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="7" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="K93" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L93" t="s">
+        <v>18</v>
+      </c>
+      <c r="M93" t="s">
+        <v>3106</v>
+      </c>
+      <c r="N93" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="7" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>3038</v>
+      </c>
+      <c r="K95" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L95" t="s">
+        <v>18</v>
+      </c>
+      <c r="M95" t="s">
+        <v>352</v>
+      </c>
+      <c r="N95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="7" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>3060</v>
+      </c>
+      <c r="K97" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L97" t="s">
+        <v>18</v>
+      </c>
+      <c r="M97" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N97" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="7" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>3038</v>
+      </c>
+      <c r="K99" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L99" t="s">
+        <v>18</v>
+      </c>
+      <c r="M99" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N99" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="7" t="s">
-        <v>3062</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>810</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I40" s="8" t="s">
+    <row r="101" spans="1:14">
+      <c r="A101" s="7" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I101" s="8" t="s">
         <v>3029</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="K101" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L101" t="s">
+        <v>18</v>
+      </c>
+      <c r="M101" t="s">
+        <v>1914</v>
+      </c>
+      <c r="N101" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="7" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>3043</v>
+      </c>
+      <c r="K103" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L103" t="s">
+        <v>18</v>
+      </c>
+      <c r="M103" t="s">
+        <v>3113</v>
+      </c>
+      <c r="N103" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="7" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J105" s="8" t="s">
         <v>3030</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K105" t="s">
         <v>3031</v>
       </c>
-      <c r="L40" t="s">
-        <v>18</v>
-      </c>
-      <c r="M40" t="s">
-        <v>3063</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="L105" t="s">
+        <v>18</v>
+      </c>
+      <c r="M105" t="s">
+        <v>3021</v>
+      </c>
+      <c r="N105" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="7" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="K107" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L107" t="s">
+        <v>18</v>
+      </c>
+      <c r="M107" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N107" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="7" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K109" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L109" t="s">
+        <v>2635</v>
+      </c>
+      <c r="M109" t="s">
+        <v>3117</v>
+      </c>
+      <c r="N109" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="7" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K111" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L111" t="s">
+        <v>18</v>
+      </c>
+      <c r="M111" t="s">
+        <v>1282</v>
+      </c>
+      <c r="N111" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="7" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J113" s="8" t="s">
+        <v>3043</v>
+      </c>
+      <c r="K113" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L113" t="s">
+        <v>18</v>
+      </c>
+      <c r="M113" t="s">
+        <v>1986</v>
+      </c>
+      <c r="N113" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="7" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J115" s="8" t="s">
+        <v>3038</v>
+      </c>
+      <c r="K115" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L115" t="s">
+        <v>18</v>
+      </c>
+      <c r="M115" t="s">
+        <v>778</v>
+      </c>
+      <c r="N115" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="7" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J117" s="8" t="s">
+        <v>3038</v>
+      </c>
+      <c r="K117" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L117" t="s">
+        <v>18</v>
+      </c>
+      <c r="M117" t="s">
+        <v>756</v>
+      </c>
+      <c r="N117" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="7" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K119" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L119" t="s">
+        <v>18</v>
+      </c>
+      <c r="M119" t="s">
+        <v>749</v>
+      </c>
+      <c r="N119" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="7" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K121" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L121" t="s">
+        <v>18</v>
+      </c>
+      <c r="M121" t="s">
+        <v>1319</v>
+      </c>
+      <c r="N121" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="7" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K123" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L123" t="s">
+        <v>18</v>
+      </c>
+      <c r="M123" t="s">
+        <v>1374</v>
+      </c>
+      <c r="N123" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="7" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K125" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L125" t="s">
+        <v>18</v>
+      </c>
+      <c r="M125" t="s">
+        <v>2266</v>
+      </c>
+      <c r="N125" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="7" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>2313</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K127" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L127" t="s">
+        <v>18</v>
+      </c>
+      <c r="M127" t="s">
+        <v>455</v>
+      </c>
+      <c r="N127" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" s="7" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K129" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L129" t="s">
+        <v>119</v>
+      </c>
+      <c r="M129" t="s">
+        <v>2328</v>
+      </c>
+      <c r="N129" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="7" t="s">
-        <v>3064</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>831</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I42" s="8" t="s">
+      <c r="O129" t="s">
+        <v>28</v>
+      </c>
+      <c r="P129" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" s="7" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>3060</v>
+      </c>
+      <c r="K131" t="s">
+        <v>3031</v>
+      </c>
+      <c r="L131" t="s">
+        <v>18</v>
+      </c>
+      <c r="M131" t="s">
+        <v>654</v>
+      </c>
+      <c r="N131" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" s="7" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I133" s="8" t="s">
         <v>3029</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J133" s="8" t="s">
         <v>3030</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K133" t="s">
         <v>3031</v>
       </c>
-      <c r="L42" t="s">
-        <v>18</v>
-      </c>
-      <c r="M42" t="s">
-        <v>1176</v>
-      </c>
-      <c r="N42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="7" t="s">
-        <v>3065</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>3051</v>
-      </c>
-      <c r="K44" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M44" t="s">
-        <v>884</v>
-      </c>
-      <c r="N44" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="7" t="s">
-        <v>3066</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>988</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>985</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K46" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L46" t="s">
-        <v>18</v>
-      </c>
-      <c r="M46" t="s">
-        <v>3067</v>
-      </c>
-      <c r="N46" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="7" t="s">
-        <v>3068</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>984</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>985</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K48" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L48" t="s">
-        <v>18</v>
-      </c>
-      <c r="M48" t="s">
-        <v>470</v>
-      </c>
-      <c r="N48" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="7" t="s">
-        <v>3069</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>3071</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>3072</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="K50" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L50" t="s">
-        <v>18</v>
-      </c>
-      <c r="M50" t="s">
-        <v>2271</v>
-      </c>
-      <c r="N50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="7" t="s">
-        <v>3073</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>3038</v>
-      </c>
-      <c r="K52" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L52" t="s">
-        <v>119</v>
-      </c>
-      <c r="M52" t="s">
-        <v>1599</v>
-      </c>
-      <c r="N52" t="s">
-        <v>201</v>
-      </c>
-      <c r="O52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="7" t="s">
-        <v>3074</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K54" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L54" t="s">
-        <v>18</v>
-      </c>
-      <c r="M54" t="s">
-        <v>59</v>
-      </c>
-      <c r="N54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="7" t="s">
-        <v>3075</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K56" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L56" t="s">
-        <v>18</v>
-      </c>
-      <c r="M56" t="s">
-        <v>1189</v>
-      </c>
-      <c r="N56" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="7" t="s">
-        <v>3076</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="K58" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L58" t="s">
-        <v>18</v>
-      </c>
-      <c r="M58" t="s">
-        <v>1017</v>
-      </c>
-      <c r="N58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="7" t="s">
-        <v>3077</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K60" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L60" t="s">
-        <v>3078</v>
-      </c>
-      <c r="M60" t="s">
-        <v>104</v>
-      </c>
-      <c r="N60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="7" t="s">
-        <v>3079</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K62" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L62" t="s">
-        <v>18</v>
-      </c>
-      <c r="M62" t="s">
-        <v>3080</v>
-      </c>
-      <c r="N62" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="7" t="s">
-        <v>3081</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K64" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L64" t="s">
-        <v>18</v>
-      </c>
-      <c r="M64" t="s">
-        <v>803</v>
-      </c>
-      <c r="N64" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="7" t="s">
-        <v>3082</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>3038</v>
-      </c>
-      <c r="K66" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L66" t="s">
-        <v>18</v>
-      </c>
-      <c r="M66" t="s">
-        <v>1319</v>
-      </c>
-      <c r="N66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="7" t="s">
-        <v>3083</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>3043</v>
-      </c>
-      <c r="K68" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L68" t="s">
-        <v>18</v>
-      </c>
-      <c r="M68" t="s">
-        <v>1644</v>
-      </c>
-      <c r="N68" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="7" t="s">
-        <v>3084</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>3051</v>
-      </c>
-      <c r="K70" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L70" t="s">
-        <v>18</v>
-      </c>
-      <c r="M70" t="s">
-        <v>2549</v>
-      </c>
-      <c r="N70" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="7" t="s">
-        <v>3085</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>3051</v>
-      </c>
-      <c r="K72" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L72" t="s">
-        <v>18</v>
-      </c>
-      <c r="M72" t="s">
-        <v>1479</v>
-      </c>
-      <c r="N72" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="7" t="s">
-        <v>3086</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>3038</v>
-      </c>
-      <c r="K74" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L74" t="s">
-        <v>18</v>
-      </c>
-      <c r="M74" t="s">
-        <v>3087</v>
-      </c>
-      <c r="N74" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="7" t="s">
-        <v>3088</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>3043</v>
-      </c>
-      <c r="K76" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L76" t="s">
-        <v>18</v>
-      </c>
-      <c r="M76" t="s">
-        <v>1241</v>
-      </c>
-      <c r="N76" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="7" t="s">
-        <v>3089</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J78" s="8" t="s">
-        <v>3038</v>
-      </c>
-      <c r="K78" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L78" t="s">
-        <v>18</v>
-      </c>
-      <c r="M78" t="s">
-        <v>417</v>
-      </c>
-      <c r="N78" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="7" t="s">
-        <v>3090</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>1571</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K80" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L80" t="s">
-        <v>18</v>
-      </c>
-      <c r="M80" t="s">
-        <v>3091</v>
-      </c>
-      <c r="N80" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="7" t="s">
-        <v>3092</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="K82" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L82" t="s">
-        <v>18</v>
-      </c>
-      <c r="M82" t="s">
-        <v>1603</v>
-      </c>
-      <c r="N82" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="7" t="s">
-        <v>3093</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K84" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L84" t="s">
-        <v>18</v>
-      </c>
-      <c r="M84" t="s">
-        <v>1603</v>
-      </c>
-      <c r="N84" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="7" t="s">
-        <v>3094</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>1608</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I86" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="K86" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L86" t="s">
-        <v>18</v>
-      </c>
-      <c r="M86" t="s">
-        <v>3095</v>
-      </c>
-      <c r="N86" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="7" t="s">
-        <v>3096</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I88" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="K88" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L88" t="s">
-        <v>18</v>
-      </c>
-      <c r="M88" t="s">
-        <v>3097</v>
-      </c>
-      <c r="N88" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90" s="7" t="s">
-        <v>3098</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>1657</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>3038</v>
-      </c>
-      <c r="K90" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L90" t="s">
-        <v>18</v>
-      </c>
-      <c r="M90" t="s">
-        <v>352</v>
-      </c>
-      <c r="N90" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="7" t="s">
-        <v>3099</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J92" s="8" t="s">
-        <v>3051</v>
-      </c>
-      <c r="K92" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L92" t="s">
-        <v>18</v>
-      </c>
-      <c r="M92" t="s">
-        <v>1686</v>
-      </c>
-      <c r="N92" t="s">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" s="7" t="s">
-        <v>3101</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I94" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J94" s="8" t="s">
-        <v>3038</v>
-      </c>
-      <c r="K94" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L94" t="s">
-        <v>18</v>
-      </c>
-      <c r="M94" t="s">
-        <v>1094</v>
-      </c>
-      <c r="N94" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" s="7" t="s">
-        <v>3102</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="K96" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L96" t="s">
-        <v>18</v>
-      </c>
-      <c r="M96" t="s">
-        <v>1914</v>
-      </c>
-      <c r="N96" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98" s="7" t="s">
-        <v>3103</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>1839</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J98" s="8" t="s">
-        <v>3043</v>
-      </c>
-      <c r="K98" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L98" t="s">
-        <v>18</v>
-      </c>
-      <c r="M98" t="s">
-        <v>3104</v>
-      </c>
-      <c r="N98" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" s="7" t="s">
-        <v>3105</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>1780</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>1868</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I100" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J100" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K100" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L100" t="s">
-        <v>18</v>
-      </c>
-      <c r="M100" t="s">
-        <v>3021</v>
-      </c>
-      <c r="N100" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102" s="7" t="s">
-        <v>3106</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>1907</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="K102" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L102" t="s">
-        <v>18</v>
-      </c>
-      <c r="M102" t="s">
-        <v>1394</v>
-      </c>
-      <c r="N102" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
-      <c r="A104" s="7" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J104" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K104" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L104" t="s">
-        <v>2635</v>
-      </c>
-      <c r="M104" t="s">
-        <v>3108</v>
-      </c>
-      <c r="N104" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
-      <c r="A106" s="7" t="s">
-        <v>3109</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>1968</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J106" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K106" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L106" t="s">
-        <v>18</v>
-      </c>
-      <c r="M106" t="s">
-        <v>1282</v>
-      </c>
-      <c r="N106" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
-      <c r="A108" s="7" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>1983</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>1984</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>1985</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H108" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J108" s="8" t="s">
-        <v>3043</v>
-      </c>
-      <c r="K108" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L108" t="s">
-        <v>18</v>
-      </c>
-      <c r="M108" t="s">
-        <v>1986</v>
-      </c>
-      <c r="N108" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
-      <c r="A110" s="7" t="s">
-        <v>3111</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>1988</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>1989</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J110" s="8" t="s">
-        <v>3038</v>
-      </c>
-      <c r="K110" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L110" t="s">
-        <v>18</v>
-      </c>
-      <c r="M110" t="s">
-        <v>778</v>
-      </c>
-      <c r="N110" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="A112" s="7" t="s">
-        <v>3112</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>2133</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>2134</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H112" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I112" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J112" s="8" t="s">
-        <v>3038</v>
-      </c>
-      <c r="K112" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L112" t="s">
-        <v>18</v>
-      </c>
-      <c r="M112" t="s">
-        <v>756</v>
-      </c>
-      <c r="N112" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16">
-      <c r="A114" s="7" t="s">
-        <v>3113</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>2151</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>2152</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H114" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I114" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J114" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K114" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L114" t="s">
-        <v>18</v>
-      </c>
-      <c r="M114" t="s">
-        <v>749</v>
-      </c>
-      <c r="N114" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16">
-      <c r="A116" s="7" t="s">
-        <v>3114</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>2188</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>2190</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K116" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L116" t="s">
-        <v>18</v>
-      </c>
-      <c r="M116" t="s">
-        <v>1319</v>
-      </c>
-      <c r="N116" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
-      <c r="A118" s="7" t="s">
-        <v>3115</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>2260</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>2261</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>2262</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I118" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J118" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K118" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L118" t="s">
-        <v>18</v>
-      </c>
-      <c r="M118" t="s">
-        <v>1374</v>
-      </c>
-      <c r="N118" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16">
-      <c r="A120" s="7" t="s">
-        <v>3116</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>2264</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>2265</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J120" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K120" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L120" t="s">
-        <v>18</v>
-      </c>
-      <c r="M120" t="s">
-        <v>2266</v>
-      </c>
-      <c r="N120" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
-      <c r="A122" s="7" t="s">
-        <v>3117</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>2313</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H122" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I122" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J122" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K122" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L122" t="s">
-        <v>18</v>
-      </c>
-      <c r="M122" t="s">
-        <v>455</v>
-      </c>
-      <c r="N122" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
-      <c r="A124" s="7" t="s">
-        <v>3118</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>2325</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>2326</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>2327</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I124" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J124" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K124" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L124" t="s">
-        <v>119</v>
-      </c>
-      <c r="M124" t="s">
-        <v>2328</v>
-      </c>
-      <c r="N124" t="s">
-        <v>813</v>
-      </c>
-      <c r="O124" t="s">
-        <v>28</v>
-      </c>
-      <c r="P124" t="s">
+      <c r="L133" t="s">
+        <v>18</v>
+      </c>
+      <c r="M133" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="126" spans="1:16">
-      <c r="A126" s="7" t="s">
-        <v>3119</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>2426</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>2423</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J126" s="8" t="s">
-        <v>3051</v>
-      </c>
-      <c r="K126" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L126" t="s">
-        <v>18</v>
-      </c>
-      <c r="M126" t="s">
-        <v>654</v>
-      </c>
-      <c r="N126" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16">
-      <c r="A128" s="7" t="s">
-        <v>3120</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>2432</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>2433</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I128" s="8" t="s">
-        <v>3029</v>
-      </c>
-      <c r="J128" s="8" t="s">
-        <v>3030</v>
-      </c>
-      <c r="K128" t="s">
-        <v>3031</v>
-      </c>
-      <c r="L128" t="s">
-        <v>18</v>
-      </c>
-      <c r="M128" t="s">
-        <v>1283</v>
-      </c>
-      <c r="N128" t="s">
+      <c r="N133" t="s">
         <v>29</v>
       </c>
     </row>
@@ -54278,104 +54440,110 @@
     <hyperlink ref="B28" r:id="rId28"/>
     <hyperlink ref="A30" r:id="rId29"/>
     <hyperlink ref="B30" r:id="rId30"/>
-    <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="B32" r:id="rId32"/>
-    <hyperlink ref="A34" r:id="rId33"/>
-    <hyperlink ref="B34" r:id="rId34"/>
-    <hyperlink ref="A36" r:id="rId35"/>
-    <hyperlink ref="B36" r:id="rId36"/>
-    <hyperlink ref="A38" r:id="rId37"/>
-    <hyperlink ref="B38" r:id="rId38"/>
-    <hyperlink ref="A40" r:id="rId39"/>
-    <hyperlink ref="B40" r:id="rId40"/>
-    <hyperlink ref="A42" r:id="rId41"/>
-    <hyperlink ref="B42" r:id="rId42"/>
-    <hyperlink ref="A44" r:id="rId43"/>
-    <hyperlink ref="B44" r:id="rId44"/>
-    <hyperlink ref="A46" r:id="rId45"/>
-    <hyperlink ref="B46" r:id="rId46"/>
-    <hyperlink ref="A48" r:id="rId47"/>
-    <hyperlink ref="B48" r:id="rId48"/>
-    <hyperlink ref="A50" r:id="rId49"/>
-    <hyperlink ref="B50" r:id="rId50"/>
-    <hyperlink ref="A52" r:id="rId51"/>
-    <hyperlink ref="B52" r:id="rId52"/>
-    <hyperlink ref="A54" r:id="rId53"/>
-    <hyperlink ref="B54" r:id="rId54"/>
-    <hyperlink ref="A56" r:id="rId55"/>
-    <hyperlink ref="B56" r:id="rId56"/>
-    <hyperlink ref="A58" r:id="rId57"/>
-    <hyperlink ref="B58" r:id="rId58"/>
-    <hyperlink ref="A60" r:id="rId59"/>
-    <hyperlink ref="B60" r:id="rId60"/>
-    <hyperlink ref="A62" r:id="rId61"/>
-    <hyperlink ref="B62" r:id="rId62"/>
-    <hyperlink ref="A64" r:id="rId63"/>
-    <hyperlink ref="B64" r:id="rId64"/>
-    <hyperlink ref="A66" r:id="rId65"/>
-    <hyperlink ref="B66" r:id="rId66"/>
-    <hyperlink ref="A68" r:id="rId67"/>
-    <hyperlink ref="B68" r:id="rId68"/>
-    <hyperlink ref="A70" r:id="rId69"/>
-    <hyperlink ref="B70" r:id="rId70"/>
-    <hyperlink ref="A72" r:id="rId71"/>
-    <hyperlink ref="B72" r:id="rId72"/>
-    <hyperlink ref="A74" r:id="rId73"/>
-    <hyperlink ref="B74" r:id="rId74"/>
-    <hyperlink ref="A76" r:id="rId75"/>
-    <hyperlink ref="B76" r:id="rId76"/>
-    <hyperlink ref="A78" r:id="rId77"/>
-    <hyperlink ref="B78" r:id="rId78"/>
-    <hyperlink ref="A80" r:id="rId79"/>
-    <hyperlink ref="B80" r:id="rId80"/>
-    <hyperlink ref="A82" r:id="rId81"/>
-    <hyperlink ref="B82" r:id="rId82"/>
-    <hyperlink ref="A84" r:id="rId83"/>
-    <hyperlink ref="B84" r:id="rId84"/>
-    <hyperlink ref="A86" r:id="rId85"/>
-    <hyperlink ref="B86" r:id="rId86"/>
-    <hyperlink ref="A88" r:id="rId87"/>
-    <hyperlink ref="B88" r:id="rId88"/>
-    <hyperlink ref="A90" r:id="rId89"/>
-    <hyperlink ref="B90" r:id="rId90"/>
-    <hyperlink ref="A92" r:id="rId91"/>
-    <hyperlink ref="B92" r:id="rId92"/>
-    <hyperlink ref="A94" r:id="rId93"/>
-    <hyperlink ref="B94" r:id="rId94"/>
-    <hyperlink ref="A96" r:id="rId95"/>
-    <hyperlink ref="B96" r:id="rId96"/>
-    <hyperlink ref="A98" r:id="rId97"/>
-    <hyperlink ref="B98" r:id="rId98"/>
-    <hyperlink ref="A100" r:id="rId99"/>
-    <hyperlink ref="B100" r:id="rId100"/>
-    <hyperlink ref="A102" r:id="rId101"/>
-    <hyperlink ref="B102" r:id="rId102"/>
-    <hyperlink ref="A104" r:id="rId103"/>
-    <hyperlink ref="B104" r:id="rId104"/>
-    <hyperlink ref="A106" r:id="rId105"/>
-    <hyperlink ref="B106" r:id="rId106"/>
-    <hyperlink ref="A108" r:id="rId107"/>
-    <hyperlink ref="B108" r:id="rId108"/>
-    <hyperlink ref="A110" r:id="rId109"/>
-    <hyperlink ref="B110" r:id="rId110"/>
-    <hyperlink ref="A112" r:id="rId111"/>
-    <hyperlink ref="B112" r:id="rId112"/>
-    <hyperlink ref="A114" r:id="rId113"/>
-    <hyperlink ref="B114" r:id="rId114"/>
-    <hyperlink ref="A116" r:id="rId115"/>
-    <hyperlink ref="B116" r:id="rId116"/>
-    <hyperlink ref="A118" r:id="rId117"/>
-    <hyperlink ref="B118" r:id="rId118"/>
-    <hyperlink ref="A120" r:id="rId119"/>
-    <hyperlink ref="B120" r:id="rId120"/>
-    <hyperlink ref="A122" r:id="rId121"/>
-    <hyperlink ref="B122" r:id="rId122"/>
-    <hyperlink ref="A124" r:id="rId123"/>
-    <hyperlink ref="B124" r:id="rId124"/>
-    <hyperlink ref="A126" r:id="rId125"/>
-    <hyperlink ref="B126" r:id="rId126"/>
-    <hyperlink ref="A128" r:id="rId127"/>
-    <hyperlink ref="B128" r:id="rId128"/>
+    <hyperlink ref="A31" r:id="rId31"/>
+    <hyperlink ref="B31" r:id="rId32"/>
+    <hyperlink ref="A33" r:id="rId33"/>
+    <hyperlink ref="B33" r:id="rId34"/>
+    <hyperlink ref="A35" r:id="rId35"/>
+    <hyperlink ref="B35" r:id="rId36"/>
+    <hyperlink ref="A37" r:id="rId37"/>
+    <hyperlink ref="B37" r:id="rId38"/>
+    <hyperlink ref="A39" r:id="rId39"/>
+    <hyperlink ref="B39" r:id="rId40"/>
+    <hyperlink ref="A41" r:id="rId41"/>
+    <hyperlink ref="B41" r:id="rId42"/>
+    <hyperlink ref="A43" r:id="rId43"/>
+    <hyperlink ref="B43" r:id="rId44"/>
+    <hyperlink ref="A45" r:id="rId45"/>
+    <hyperlink ref="B45" r:id="rId46"/>
+    <hyperlink ref="A47" r:id="rId47"/>
+    <hyperlink ref="B47" r:id="rId48"/>
+    <hyperlink ref="A49" r:id="rId49"/>
+    <hyperlink ref="B49" r:id="rId50"/>
+    <hyperlink ref="A51" r:id="rId51"/>
+    <hyperlink ref="B51" r:id="rId52"/>
+    <hyperlink ref="A53" r:id="rId53"/>
+    <hyperlink ref="B53" r:id="rId54"/>
+    <hyperlink ref="A55" r:id="rId55"/>
+    <hyperlink ref="B55" r:id="rId56"/>
+    <hyperlink ref="A57" r:id="rId57"/>
+    <hyperlink ref="B57" r:id="rId58"/>
+    <hyperlink ref="A59" r:id="rId59"/>
+    <hyperlink ref="B59" r:id="rId60"/>
+    <hyperlink ref="A61" r:id="rId61"/>
+    <hyperlink ref="B61" r:id="rId62"/>
+    <hyperlink ref="A63" r:id="rId63"/>
+    <hyperlink ref="B63" r:id="rId64"/>
+    <hyperlink ref="A65" r:id="rId65"/>
+    <hyperlink ref="B65" r:id="rId66"/>
+    <hyperlink ref="A67" r:id="rId67"/>
+    <hyperlink ref="B67" r:id="rId68"/>
+    <hyperlink ref="A69" r:id="rId69"/>
+    <hyperlink ref="B69" r:id="rId70"/>
+    <hyperlink ref="A71" r:id="rId71"/>
+    <hyperlink ref="B71" r:id="rId72"/>
+    <hyperlink ref="A73" r:id="rId73"/>
+    <hyperlink ref="B73" r:id="rId74"/>
+    <hyperlink ref="A75" r:id="rId75"/>
+    <hyperlink ref="B75" r:id="rId76"/>
+    <hyperlink ref="A77" r:id="rId77"/>
+    <hyperlink ref="B77" r:id="rId78"/>
+    <hyperlink ref="A79" r:id="rId79"/>
+    <hyperlink ref="B79" r:id="rId80"/>
+    <hyperlink ref="A81" r:id="rId81"/>
+    <hyperlink ref="B81" r:id="rId82"/>
+    <hyperlink ref="A83" r:id="rId83"/>
+    <hyperlink ref="B83" r:id="rId84"/>
+    <hyperlink ref="A85" r:id="rId85"/>
+    <hyperlink ref="B85" r:id="rId86"/>
+    <hyperlink ref="A87" r:id="rId87"/>
+    <hyperlink ref="B87" r:id="rId88"/>
+    <hyperlink ref="A89" r:id="rId89"/>
+    <hyperlink ref="B89" r:id="rId90"/>
+    <hyperlink ref="A91" r:id="rId91"/>
+    <hyperlink ref="B91" r:id="rId92"/>
+    <hyperlink ref="A93" r:id="rId93"/>
+    <hyperlink ref="B93" r:id="rId94"/>
+    <hyperlink ref="A95" r:id="rId95"/>
+    <hyperlink ref="B95" r:id="rId96"/>
+    <hyperlink ref="A97" r:id="rId97"/>
+    <hyperlink ref="B97" r:id="rId98"/>
+    <hyperlink ref="A99" r:id="rId99"/>
+    <hyperlink ref="B99" r:id="rId100"/>
+    <hyperlink ref="A101" r:id="rId101"/>
+    <hyperlink ref="B101" r:id="rId102"/>
+    <hyperlink ref="A103" r:id="rId103"/>
+    <hyperlink ref="B103" r:id="rId104"/>
+    <hyperlink ref="A105" r:id="rId105"/>
+    <hyperlink ref="B105" r:id="rId106"/>
+    <hyperlink ref="A107" r:id="rId107"/>
+    <hyperlink ref="B107" r:id="rId108"/>
+    <hyperlink ref="A109" r:id="rId109"/>
+    <hyperlink ref="B109" r:id="rId110"/>
+    <hyperlink ref="A111" r:id="rId111"/>
+    <hyperlink ref="B111" r:id="rId112"/>
+    <hyperlink ref="A113" r:id="rId113"/>
+    <hyperlink ref="B113" r:id="rId114"/>
+    <hyperlink ref="A115" r:id="rId115"/>
+    <hyperlink ref="B115" r:id="rId116"/>
+    <hyperlink ref="A117" r:id="rId117"/>
+    <hyperlink ref="B117" r:id="rId118"/>
+    <hyperlink ref="A119" r:id="rId119"/>
+    <hyperlink ref="B119" r:id="rId120"/>
+    <hyperlink ref="A121" r:id="rId121"/>
+    <hyperlink ref="B121" r:id="rId122"/>
+    <hyperlink ref="A123" r:id="rId123"/>
+    <hyperlink ref="B123" r:id="rId124"/>
+    <hyperlink ref="A125" r:id="rId125"/>
+    <hyperlink ref="B125" r:id="rId126"/>
+    <hyperlink ref="A127" r:id="rId127"/>
+    <hyperlink ref="B127" r:id="rId128"/>
+    <hyperlink ref="A129" r:id="rId129"/>
+    <hyperlink ref="B129" r:id="rId130"/>
+    <hyperlink ref="A131" r:id="rId131"/>
+    <hyperlink ref="B131" r:id="rId132"/>
+    <hyperlink ref="A133" r:id="rId133"/>
+    <hyperlink ref="B133" r:id="rId134"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54456,7 +54624,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>3121</v>
+        <v>3130</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2492</v>
@@ -54480,16 +54648,16 @@
         <v>157</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K2" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>3124</v>
+        <v>3133</v>
       </c>
       <c r="N2" t="s">
         <v>813</v>
@@ -54497,7 +54665,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>3125</v>
+        <v>3134</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2564</v>
@@ -54521,10 +54689,10 @@
         <v>157</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K4" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
@@ -54538,7 +54706,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>3126</v>
+        <v>3135</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>2579</v>
@@ -54562,16 +54730,16 @@
         <v>157</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K6" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>3127</v>
+        <v>3136</v>
       </c>
       <c r="N6" t="s">
         <v>825</v>
@@ -54579,7 +54747,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>3128</v>
+        <v>3137</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>2573</v>
@@ -54603,16 +54771,16 @@
         <v>157</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K8" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>3127</v>
+        <v>3136</v>
       </c>
       <c r="N8" t="s">
         <v>825</v>
@@ -54620,7 +54788,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>3129</v>
+        <v>3138</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2604</v>
@@ -54644,10 +54812,10 @@
         <v>157</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K10" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
@@ -54661,7 +54829,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
-        <v>3130</v>
+        <v>3139</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>2609</v>
@@ -54685,10 +54853,10 @@
         <v>157</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K12" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
@@ -54702,34 +54870,34 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>3143</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>3131</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="K14" t="s">
         <v>3132</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>3133</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>3134</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>3122</v>
-      </c>
-      <c r="K14" t="s">
-        <v>3123</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -54743,7 +54911,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
-        <v>3135</v>
+        <v>3144</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>2703</v>
@@ -54767,10 +54935,10 @@
         <v>157</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K16" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -54784,7 +54952,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="7" t="s">
-        <v>3136</v>
+        <v>3145</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>2760</v>
@@ -54808,10 +54976,10 @@
         <v>157</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K18" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L18" t="s">
         <v>98</v>
@@ -54823,12 +54991,12 @@
         <v>200</v>
       </c>
       <c r="P18" t="s">
-        <v>3137</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="7" t="s">
-        <v>3138</v>
+        <v>3147</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>2764</v>
@@ -54852,16 +55020,16 @@
         <v>157</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K20" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L20" t="s">
         <v>98</v>
       </c>
       <c r="M20" t="s">
-        <v>3139</v>
+        <v>3148</v>
       </c>
       <c r="N20" t="s">
         <v>182</v>
@@ -54872,7 +55040,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="7" t="s">
-        <v>3140</v>
+        <v>3149</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>2844</v>
@@ -54896,10 +55064,10 @@
         <v>157</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K22" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L22" t="s">
         <v>18</v>
@@ -54913,7 +55081,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="7" t="s">
-        <v>3141</v>
+        <v>3150</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>2872</v>
@@ -54937,16 +55105,16 @@
         <v>157</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K24" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L24" t="s">
         <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>3142</v>
+        <v>3151</v>
       </c>
       <c r="N24" t="s">
         <v>182</v>
@@ -54954,7 +55122,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="7" t="s">
-        <v>3143</v>
+        <v>3152</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>2881</v>
@@ -54978,10 +55146,10 @@
         <v>157</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K26" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L26" t="s">
         <v>18</v>
@@ -54995,7 +55163,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="7" t="s">
-        <v>3144</v>
+        <v>3153</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>2936</v>
@@ -55019,10 +55187,10 @@
         <v>157</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K28" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L28" t="s">
         <v>18</v>
@@ -55036,7 +55204,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="7" t="s">
-        <v>3145</v>
+        <v>3154</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>2944</v>
@@ -55060,10 +55228,10 @@
         <v>157</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K30" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L30" t="s">
         <v>18</v>
@@ -55077,7 +55245,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="7" t="s">
-        <v>3146</v>
+        <v>3155</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>2948</v>
@@ -55101,16 +55269,16 @@
         <v>157</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K32" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L32" t="s">
         <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>3147</v>
+        <v>3156</v>
       </c>
       <c r="N32" t="s">
         <v>1002</v>
@@ -55118,7 +55286,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="7" t="s">
-        <v>3148</v>
+        <v>3157</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>2971</v>
@@ -55142,27 +55310,27 @@
         <v>157</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K34" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L34" t="s">
         <v>98</v>
       </c>
       <c r="M34" t="s">
-        <v>3149</v>
+        <v>3158</v>
       </c>
       <c r="N34" t="s">
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>3150</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="7" t="s">
-        <v>3151</v>
+        <v>3160</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>2985</v>
@@ -55186,10 +55354,10 @@
         <v>157</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K36" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L36" t="s">
         <v>18</v>
@@ -55203,7 +55371,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="7" t="s">
-        <v>3152</v>
+        <v>3161</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>3001</v>
@@ -55227,10 +55395,10 @@
         <v>157</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
       <c r="K38" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="L38" t="s">
         <v>98</v>

--- a/excel_reports/Rhee_Cano.xlsx
+++ b/excel_reports/Rhee_Cano.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13318" uniqueCount="3195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13292" uniqueCount="3192">
   <si>
     <t>Policy Record</t>
   </si>
@@ -9191,24 +9191,6 @@
     <t>3172133414</t>
   </si>
   <si>
-    <t>3172133422</t>
-  </si>
-  <si>
-    <t>switched to Ameritas</t>
-  </si>
-  <si>
-    <t>3356736096</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Seifert</t>
-  </si>
-  <si>
-    <t>10-18-2022</t>
-  </si>
-  <si>
     <t>3172447264</t>
   </si>
   <si>
@@ -9530,10 +9512,13 @@
     <t>Current Month Active</t>
   </si>
   <si>
-    <t>Lifetime Cancels (12+ Month Duration)</t>
-  </si>
-  <si>
-    <t>(These plans are added back into Current Month Total Active)</t>
+    <t>Past Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>(Any new long-term cancels are added back into Current Month Total Active)</t>
   </si>
   <si>
     <t>Net New Active</t>
@@ -9575,13 +9560,16 @@
     <t>Ancillary Plans</t>
   </si>
   <si>
-    <t>Previous Active DVH Plans:</t>
+    <t>Past Active DVH Plans:</t>
   </si>
   <si>
     <t>Current Active DVH Plans:</t>
   </si>
   <si>
-    <t>DVH Lifetime Cancels (12+ Month Duration)</t>
+    <t>Previous DVH Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current DVH Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New DVH Plans:</t>
@@ -9596,7 +9584,10 @@
     <t>Current Active Copay Plans:</t>
   </si>
   <si>
-    <t>Copay Lifetime Cancels (12+ Month Duration)</t>
+    <t>Past Copay Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Copay Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New Copay Plans:</t>
@@ -10006,7 +9997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10018,12 +10009,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>3166</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>3167</v>
+        <v>3161</v>
       </c>
       <c r="B2" s="2">
         <v>630</v>
@@ -10031,7 +10022,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>3168</v>
+        <v>3162</v>
       </c>
       <c r="B3" s="2">
         <v>630</v>
@@ -10039,93 +10030,101 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>3169</v>
+        <v>3163</v>
       </c>
       <c r="B4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B5" s="2">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>3171</v>
-      </c>
-      <c r="B5" s="4">
-        <f>B3+B4-B2</f>
+      <c r="C5" s="3" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B6" s="4">
+        <f>-B2+B3-B4+B5</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>3172</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>3173</v>
+        <v>3167</v>
       </c>
       <c r="B7" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B8" s="2">
         <v>30</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>3174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>3175</v>
-      </c>
-      <c r="B8" s="4">
-        <f>SUM(B5:B7)</f>
-        <v>0</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>3176</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>3177</v>
-      </c>
-      <c r="B9" s="5">
-        <f>MAX(0, B8*150)</f>
+        <v>3170</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUM(B6:B8)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>3178</v>
+      <c r="C9" s="3" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B10" s="5">
+        <f>MAX(0, B9*150)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>3179</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="1" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B13" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>3180</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>3181</v>
+        <v>3176</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>3182</v>
+        <v>3177</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -10134,12 +10133,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>3183</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>3184</v>
+        <v>3179</v>
       </c>
       <c r="B20">
         <v>60</v>
@@ -10147,15 +10146,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>3185</v>
+        <v>3180</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>3186</v>
+        <v>3181</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -10163,25 +10162,33 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>3187</v>
-      </c>
-      <c r="B23">
-        <f>-B20+B21+B22</f>
+        <v>3182</v>
+      </c>
+      <c r="B23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>3188</v>
-      </c>
-      <c r="B24" s="5">
-        <f>B23*50</f>
+      <c r="A24" s="2" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B24">
+        <f>-B20+B21-B22+B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B24*50</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="B26">
         <v>16</v>
@@ -10189,7 +10196,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -10197,27 +10204,35 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
       <c r="B28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>3192</v>
-      </c>
-      <c r="B29">
-        <f>-B26+B27+B28</f>
+        <v>3188</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B30">
+        <f>-B26+B27-B28+B29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>3193</v>
-      </c>
-      <c r="B30" s="5">
-        <f>B29*100</f>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B31" s="5">
+        <f>B30*100</f>
         <v>0</v>
       </c>
     </row>
@@ -11042,7 +11057,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -51495,13 +51510,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T133"/>
+  <dimension ref="A1:T130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -51900,7 +51915,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
         <v>3048</v>
       </c>
@@ -51944,7 +51959,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
         <v>3050</v>
       </c>
@@ -51988,7 +52003,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
         <v>3051</v>
       </c>
@@ -52032,7 +52047,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
         <v>3052</v>
       </c>
@@ -52076,7 +52091,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
         <v>3055</v>
       </c>
@@ -52117,18 +52132,18 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
         <v>3056</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>286</v>
+        <v>712</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>156</v>
@@ -52143,2332 +52158,2241 @@
         <v>157</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>80</v>
+        <v>3035</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>3057</v>
       </c>
       <c r="K28" t="s">
         <v>3037</v>
       </c>
       <c r="L28" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>383</v>
+        <v>3058</v>
       </c>
       <c r="N28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>3061</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="K30" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1309</v>
+      </c>
+      <c r="N30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K32" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" t="s">
+        <v>3064</v>
+      </c>
+      <c r="N32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K34" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L34" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" t="s">
+        <v>3064</v>
+      </c>
+      <c r="N34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="7" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K36" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L36" t="s">
+        <v>119</v>
+      </c>
+      <c r="M36" t="s">
+        <v>761</v>
+      </c>
+      <c r="N36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="7" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L38" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="7" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K40" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" t="s">
+        <v>3069</v>
+      </c>
+      <c r="N40" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="7" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K42" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="7" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>3057</v>
+      </c>
+      <c r="K44" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L44" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" t="s">
+        <v>884</v>
+      </c>
+      <c r="N44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="7" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K46" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L46" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" t="s">
+        <v>3073</v>
+      </c>
+      <c r="N46" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="7" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K48" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L48" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" t="s">
+        <v>470</v>
+      </c>
+      <c r="N48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="7" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>3077</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>3078</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="K50" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L50" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" t="s">
+        <v>2277</v>
+      </c>
+      <c r="N50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="7" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K52" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L52" t="s">
+        <v>119</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1599</v>
+      </c>
+      <c r="N52" t="s">
+        <v>201</v>
+      </c>
+      <c r="O52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="7" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K54" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L54" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54" t="s">
+        <v>59</v>
+      </c>
+      <c r="N54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="7" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K56" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L56" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" t="s">
+        <v>1189</v>
+      </c>
+      <c r="N56" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="7" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="K58" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L58" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N58" t="s">
         <v>92</v>
       </c>
-      <c r="P28" t="s">
-        <v>85</v>
-      </c>
-      <c r="R28" s="8" t="s">
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="7" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K60" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L60" t="s">
+        <v>3084</v>
+      </c>
+      <c r="M60" t="s">
+        <v>104</v>
+      </c>
+      <c r="N60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="7" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K62" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L62" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" t="s">
+        <v>3086</v>
+      </c>
+      <c r="N62" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="7" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K64" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L64" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" t="s">
+        <v>803</v>
+      </c>
+      <c r="N64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="7" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K66" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L66" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" t="s">
+        <v>1319</v>
+      </c>
+      <c r="N66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="7" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>3049</v>
+      </c>
+      <c r="K68" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L68" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" t="s">
+        <v>1644</v>
+      </c>
+      <c r="N68" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="7" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J70" s="8" t="s">
         <v>3057</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="7" t="s">
-        <v>3058</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="K70" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L70" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" t="s">
+        <v>2555</v>
+      </c>
+      <c r="N70" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="7" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>3057</v>
+      </c>
+      <c r="K72" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L72" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" t="s">
+        <v>1479</v>
+      </c>
+      <c r="N72" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="7" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K74" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L74" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" t="s">
+        <v>3093</v>
+      </c>
+      <c r="N74" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="7" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>3049</v>
+      </c>
+      <c r="K76" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L76" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" t="s">
+        <v>1241</v>
+      </c>
+      <c r="N76" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="7" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K78" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L78" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" t="s">
+        <v>417</v>
+      </c>
+      <c r="N78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="7" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K80" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L80" t="s">
+        <v>18</v>
+      </c>
+      <c r="M80" t="s">
+        <v>3097</v>
+      </c>
+      <c r="N80" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="7" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="K82" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L82" t="s">
+        <v>18</v>
+      </c>
+      <c r="M82" t="s">
+        <v>1603</v>
+      </c>
+      <c r="N82" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="7" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K84" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L84" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" t="s">
+        <v>1603</v>
+      </c>
+      <c r="N84" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="7" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="K86" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L86" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" t="s">
+        <v>3101</v>
+      </c>
+      <c r="N86" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="K88" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L88" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" t="s">
+        <v>3103</v>
+      </c>
+      <c r="N88" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="7" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K90" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L90" t="s">
+        <v>18</v>
+      </c>
+      <c r="M90" t="s">
+        <v>352</v>
+      </c>
+      <c r="N90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="7" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K92" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L92" t="s">
+        <v>3084</v>
+      </c>
+      <c r="M92" t="s">
+        <v>2079</v>
+      </c>
+      <c r="N92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="7" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J94" s="8" t="s">
+        <v>3057</v>
+      </c>
+      <c r="K94" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L94" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N94" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="7" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J96" s="8" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K96" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L96" t="s">
+        <v>18</v>
+      </c>
+      <c r="M96" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N96" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="7" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="K98" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L98" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" t="s">
+        <v>1914</v>
+      </c>
+      <c r="N98" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="7" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>3059</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>3060</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I29" s="8" t="s">
+      <c r="D100" s="8" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I100" s="8" t="s">
         <v>3035</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J100" s="8" t="s">
         <v>3049</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K100" t="s">
         <v>3037</v>
       </c>
-      <c r="L29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" t="s">
-        <v>3061</v>
-      </c>
-      <c r="N29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="7" t="s">
-        <v>3062</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I31" s="8" t="s">
+      <c r="L100" t="s">
+        <v>18</v>
+      </c>
+      <c r="M100" t="s">
+        <v>3111</v>
+      </c>
+      <c r="N100" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="7" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I102" s="8" t="s">
         <v>3035</v>
       </c>
-      <c r="J31" s="8" t="s">
-        <v>3063</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="J102" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K102" t="s">
         <v>3037</v>
       </c>
-      <c r="L31" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" t="s">
-        <v>3064</v>
-      </c>
-      <c r="N31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="7" t="s">
-        <v>3065</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>3066</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>3067</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>3068</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I33" s="8" t="s">
+      <c r="L102" t="s">
+        <v>18</v>
+      </c>
+      <c r="M102" t="s">
+        <v>3027</v>
+      </c>
+      <c r="N102" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="7" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I104" s="8" t="s">
         <v>3035</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K104" t="s">
         <v>3037</v>
       </c>
-      <c r="L33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" t="s">
-        <v>1309</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="L104" t="s">
+        <v>18</v>
+      </c>
+      <c r="M104" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N104" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="7" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K106" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L106" t="s">
+        <v>2641</v>
+      </c>
+      <c r="M106" t="s">
+        <v>3115</v>
+      </c>
+      <c r="N106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="7" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J108" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K108" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L108" t="s">
+        <v>18</v>
+      </c>
+      <c r="M108" t="s">
+        <v>1282</v>
+      </c>
+      <c r="N108" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="7" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>3049</v>
+      </c>
+      <c r="K110" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L110" t="s">
+        <v>18</v>
+      </c>
+      <c r="M110" t="s">
+        <v>1986</v>
+      </c>
+      <c r="N110" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="7" t="s">
-        <v>3069</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I35" s="8" t="s">
+    <row r="112" spans="1:14">
+      <c r="A112" s="7" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J112" s="8" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K112" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L112" t="s">
+        <v>18</v>
+      </c>
+      <c r="M112" t="s">
+        <v>778</v>
+      </c>
+      <c r="N112" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="7" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I114" s="8" t="s">
         <v>3035</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J114" s="8" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K114" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L114" t="s">
+        <v>18</v>
+      </c>
+      <c r="M114" t="s">
+        <v>756</v>
+      </c>
+      <c r="N114" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" s="7" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J116" s="8" t="s">
         <v>3036</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K116" t="s">
         <v>3037</v>
       </c>
-      <c r="L35" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" t="s">
-        <v>3070</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="L116" t="s">
+        <v>18</v>
+      </c>
+      <c r="M116" t="s">
+        <v>749</v>
+      </c>
+      <c r="N116" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="7" t="s">
-        <v>3071</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I37" s="8" t="s">
+    <row r="118" spans="1:16">
+      <c r="A118" s="7" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K118" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L118" t="s">
+        <v>18</v>
+      </c>
+      <c r="M118" t="s">
+        <v>1319</v>
+      </c>
+      <c r="N118" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="7" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>2268</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I120" s="8" t="s">
         <v>3035</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J120" s="8" t="s">
         <v>3036</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K120" t="s">
         <v>3037</v>
       </c>
-      <c r="L37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" t="s">
-        <v>3070</v>
-      </c>
-      <c r="N37" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="7" t="s">
-        <v>3072</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I39" s="8" t="s">
+      <c r="L120" t="s">
+        <v>18</v>
+      </c>
+      <c r="M120" t="s">
+        <v>1374</v>
+      </c>
+      <c r="N120" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="7" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>2271</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K122" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L122" t="s">
+        <v>18</v>
+      </c>
+      <c r="M122" t="s">
+        <v>2272</v>
+      </c>
+      <c r="N122" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="7" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>2319</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K124" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L124" t="s">
+        <v>18</v>
+      </c>
+      <c r="M124" t="s">
+        <v>455</v>
+      </c>
+      <c r="N124" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" s="7" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>2333</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K126" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L126" t="s">
+        <v>119</v>
+      </c>
+      <c r="M126" t="s">
+        <v>2334</v>
+      </c>
+      <c r="N126" t="s">
+        <v>813</v>
+      </c>
+      <c r="O126" t="s">
+        <v>28</v>
+      </c>
+      <c r="P126" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" s="7" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I128" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>3044</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="J128" s="8" t="s">
+        <v>3057</v>
+      </c>
+      <c r="K128" t="s">
         <v>3037</v>
       </c>
-      <c r="L39" t="s">
-        <v>119</v>
-      </c>
-      <c r="M39" t="s">
-        <v>761</v>
-      </c>
-      <c r="N39" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="7" t="s">
-        <v>3073</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="L128" t="s">
+        <v>18</v>
+      </c>
+      <c r="M128" t="s">
+        <v>654</v>
+      </c>
+      <c r="N128" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="7" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K130" t="s">
         <v>3037</v>
       </c>
-      <c r="L41" t="s">
-        <v>18</v>
-      </c>
-      <c r="M41" t="s">
-        <v>1053</v>
-      </c>
-      <c r="N41" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="7" t="s">
-        <v>3074</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>810</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K43" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L43" t="s">
-        <v>18</v>
-      </c>
-      <c r="M43" t="s">
-        <v>3075</v>
-      </c>
-      <c r="N43" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="7" t="s">
-        <v>3076</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>831</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K45" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M45" t="s">
-        <v>1176</v>
-      </c>
-      <c r="N45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="7" t="s">
-        <v>3077</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>3063</v>
-      </c>
-      <c r="K47" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L47" t="s">
-        <v>18</v>
-      </c>
-      <c r="M47" t="s">
-        <v>884</v>
-      </c>
-      <c r="N47" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="7" t="s">
-        <v>3078</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>988</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>985</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K49" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L49" t="s">
-        <v>18</v>
-      </c>
-      <c r="M49" t="s">
-        <v>3079</v>
-      </c>
-      <c r="N49" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="7" t="s">
-        <v>3080</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>984</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>985</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K51" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L51" t="s">
-        <v>18</v>
-      </c>
-      <c r="M51" t="s">
-        <v>470</v>
-      </c>
-      <c r="N51" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="7" t="s">
-        <v>3081</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>3082</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>3083</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>3084</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="K53" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L53" t="s">
-        <v>18</v>
-      </c>
-      <c r="M53" t="s">
-        <v>2277</v>
-      </c>
-      <c r="N53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="7" t="s">
-        <v>3085</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>3044</v>
-      </c>
-      <c r="K55" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L55" t="s">
-        <v>119</v>
-      </c>
-      <c r="M55" t="s">
-        <v>1599</v>
-      </c>
-      <c r="N55" t="s">
-        <v>201</v>
-      </c>
-      <c r="O55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="7" t="s">
-        <v>3086</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K57" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L57" t="s">
-        <v>18</v>
-      </c>
-      <c r="M57" t="s">
-        <v>59</v>
-      </c>
-      <c r="N57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="7" t="s">
-        <v>3087</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K59" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L59" t="s">
-        <v>18</v>
-      </c>
-      <c r="M59" t="s">
-        <v>1189</v>
-      </c>
-      <c r="N59" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="7" t="s">
-        <v>3088</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="K61" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L61" t="s">
-        <v>18</v>
-      </c>
-      <c r="M61" t="s">
-        <v>1017</v>
-      </c>
-      <c r="N61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="7" t="s">
-        <v>3089</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K63" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L63" t="s">
-        <v>3090</v>
-      </c>
-      <c r="M63" t="s">
-        <v>104</v>
-      </c>
-      <c r="N63" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="7" t="s">
-        <v>3091</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K65" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L65" t="s">
-        <v>18</v>
-      </c>
-      <c r="M65" t="s">
-        <v>3092</v>
-      </c>
-      <c r="N65" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="7" t="s">
-        <v>3093</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K67" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L67" t="s">
-        <v>18</v>
-      </c>
-      <c r="M67" t="s">
-        <v>803</v>
-      </c>
-      <c r="N67" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="7" t="s">
-        <v>3094</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>3044</v>
-      </c>
-      <c r="K69" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L69" t="s">
-        <v>18</v>
-      </c>
-      <c r="M69" t="s">
-        <v>1319</v>
-      </c>
-      <c r="N69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="7" t="s">
-        <v>3095</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>3049</v>
-      </c>
-      <c r="K71" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L71" t="s">
-        <v>18</v>
-      </c>
-      <c r="M71" t="s">
-        <v>1644</v>
-      </c>
-      <c r="N71" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="7" t="s">
-        <v>3096</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>3063</v>
-      </c>
-      <c r="K73" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L73" t="s">
-        <v>18</v>
-      </c>
-      <c r="M73" t="s">
-        <v>2555</v>
-      </c>
-      <c r="N73" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="7" t="s">
-        <v>3097</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>3063</v>
-      </c>
-      <c r="K75" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L75" t="s">
-        <v>18</v>
-      </c>
-      <c r="M75" t="s">
-        <v>1479</v>
-      </c>
-      <c r="N75" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="7" t="s">
-        <v>3098</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>3044</v>
-      </c>
-      <c r="K77" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L77" t="s">
-        <v>18</v>
-      </c>
-      <c r="M77" t="s">
-        <v>3099</v>
-      </c>
-      <c r="N77" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="7" t="s">
-        <v>3100</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>3049</v>
-      </c>
-      <c r="K79" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L79" t="s">
-        <v>18</v>
-      </c>
-      <c r="M79" t="s">
-        <v>1241</v>
-      </c>
-      <c r="N79" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="7" t="s">
-        <v>3101</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>3044</v>
-      </c>
-      <c r="K81" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L81" t="s">
-        <v>18</v>
-      </c>
-      <c r="M81" t="s">
-        <v>417</v>
-      </c>
-      <c r="N81" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="7" t="s">
-        <v>3102</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>1571</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K83" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L83" t="s">
-        <v>18</v>
-      </c>
-      <c r="M83" t="s">
-        <v>3103</v>
-      </c>
-      <c r="N83" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="7" t="s">
-        <v>3104</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="K85" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L85" t="s">
-        <v>18</v>
-      </c>
-      <c r="M85" t="s">
-        <v>1603</v>
-      </c>
-      <c r="N85" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="7" t="s">
-        <v>3105</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K87" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L87" t="s">
-        <v>18</v>
-      </c>
-      <c r="M87" t="s">
-        <v>1603</v>
-      </c>
-      <c r="N87" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="7" t="s">
-        <v>3106</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>1608</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I89" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="K89" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L89" t="s">
-        <v>18</v>
-      </c>
-      <c r="M89" t="s">
-        <v>3107</v>
-      </c>
-      <c r="N89" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="7" t="s">
-        <v>3108</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="K91" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L91" t="s">
-        <v>18</v>
-      </c>
-      <c r="M91" t="s">
-        <v>3109</v>
-      </c>
-      <c r="N91" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" s="7" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>1657</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J93" s="8" t="s">
-        <v>3044</v>
-      </c>
-      <c r="K93" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L93" t="s">
-        <v>18</v>
-      </c>
-      <c r="M93" t="s">
-        <v>352</v>
-      </c>
-      <c r="N93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" s="7" t="s">
-        <v>3111</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J95" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K95" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L95" t="s">
-        <v>3090</v>
-      </c>
-      <c r="M95" t="s">
-        <v>2079</v>
-      </c>
-      <c r="N95" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" s="7" t="s">
-        <v>3112</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J97" s="8" t="s">
-        <v>3063</v>
-      </c>
-      <c r="K97" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L97" t="s">
-        <v>18</v>
-      </c>
-      <c r="M97" t="s">
-        <v>1686</v>
-      </c>
-      <c r="N97" t="s">
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" s="7" t="s">
-        <v>3114</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I99" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J99" s="8" t="s">
-        <v>3044</v>
-      </c>
-      <c r="K99" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L99" t="s">
-        <v>18</v>
-      </c>
-      <c r="M99" t="s">
-        <v>1094</v>
-      </c>
-      <c r="N99" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" s="7" t="s">
-        <v>3115</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="K101" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L101" t="s">
-        <v>18</v>
-      </c>
-      <c r="M101" t="s">
-        <v>1914</v>
-      </c>
-      <c r="N101" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
-      <c r="A103" s="7" t="s">
-        <v>3116</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>1839</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I103" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J103" s="8" t="s">
-        <v>3049</v>
-      </c>
-      <c r="K103" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L103" t="s">
-        <v>18</v>
-      </c>
-      <c r="M103" t="s">
-        <v>3117</v>
-      </c>
-      <c r="N103" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
-      <c r="A105" s="7" t="s">
-        <v>3118</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>1780</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>1868</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J105" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K105" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L105" t="s">
-        <v>18</v>
-      </c>
-      <c r="M105" t="s">
-        <v>3027</v>
-      </c>
-      <c r="N105" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
-      <c r="A107" s="7" t="s">
-        <v>3119</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>1907</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I107" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="K107" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L107" t="s">
-        <v>18</v>
-      </c>
-      <c r="M107" t="s">
-        <v>1394</v>
-      </c>
-      <c r="N107" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
-      <c r="A109" s="7" t="s">
-        <v>3120</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I109" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J109" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K109" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L109" t="s">
-        <v>2641</v>
-      </c>
-      <c r="M109" t="s">
-        <v>3121</v>
-      </c>
-      <c r="N109" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
-      <c r="A111" s="7" t="s">
-        <v>3122</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>1968</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H111" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I111" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J111" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K111" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L111" t="s">
-        <v>18</v>
-      </c>
-      <c r="M111" t="s">
-        <v>1282</v>
-      </c>
-      <c r="N111" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
-      <c r="A113" s="7" t="s">
-        <v>3123</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>1983</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>1984</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>1985</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I113" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J113" s="8" t="s">
-        <v>3049</v>
-      </c>
-      <c r="K113" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L113" t="s">
-        <v>18</v>
-      </c>
-      <c r="M113" t="s">
-        <v>1986</v>
-      </c>
-      <c r="N113" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
-      <c r="A115" s="7" t="s">
-        <v>3124</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>1988</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>1989</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I115" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J115" s="8" t="s">
-        <v>3044</v>
-      </c>
-      <c r="K115" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L115" t="s">
-        <v>18</v>
-      </c>
-      <c r="M115" t="s">
-        <v>778</v>
-      </c>
-      <c r="N115" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
-      <c r="A117" s="7" t="s">
-        <v>3125</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>2139</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>2140</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I117" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J117" s="8" t="s">
-        <v>3044</v>
-      </c>
-      <c r="K117" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L117" t="s">
-        <v>18</v>
-      </c>
-      <c r="M117" t="s">
-        <v>756</v>
-      </c>
-      <c r="N117" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
-      <c r="A119" s="7" t="s">
-        <v>3126</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>2157</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>2158</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I119" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J119" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K119" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L119" t="s">
-        <v>18</v>
-      </c>
-      <c r="M119" t="s">
-        <v>749</v>
-      </c>
-      <c r="N119" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
-      <c r="A121" s="7" t="s">
-        <v>3127</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>2194</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>2195</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>2196</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I121" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K121" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L121" t="s">
-        <v>18</v>
-      </c>
-      <c r="M121" t="s">
-        <v>1319</v>
-      </c>
-      <c r="N121" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
-      <c r="A123" s="7" t="s">
-        <v>3128</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>2266</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>2267</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>2268</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I123" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J123" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K123" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L123" t="s">
-        <v>18</v>
-      </c>
-      <c r="M123" t="s">
-        <v>1374</v>
-      </c>
-      <c r="N123" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
-      <c r="A125" s="7" t="s">
-        <v>3129</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>2270</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>2271</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I125" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J125" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K125" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L125" t="s">
-        <v>18</v>
-      </c>
-      <c r="M125" t="s">
-        <v>2272</v>
-      </c>
-      <c r="N125" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="A127" s="7" t="s">
-        <v>3130</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>2318</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>2135</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>2319</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I127" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J127" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K127" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L127" t="s">
-        <v>18</v>
-      </c>
-      <c r="M127" t="s">
-        <v>455</v>
-      </c>
-      <c r="N127" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16">
-      <c r="A129" s="7" t="s">
-        <v>3131</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>2331</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>2332</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>2333</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I129" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J129" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K129" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L129" t="s">
-        <v>119</v>
-      </c>
-      <c r="M129" t="s">
-        <v>2334</v>
-      </c>
-      <c r="N129" t="s">
-        <v>813</v>
-      </c>
-      <c r="O129" t="s">
-        <v>28</v>
-      </c>
-      <c r="P129" t="s">
+      <c r="L130" t="s">
+        <v>18</v>
+      </c>
+      <c r="M130" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="131" spans="1:16">
-      <c r="A131" s="7" t="s">
-        <v>3132</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>2432</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>2429</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I131" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J131" s="8" t="s">
-        <v>3063</v>
-      </c>
-      <c r="K131" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L131" t="s">
-        <v>18</v>
-      </c>
-      <c r="M131" t="s">
-        <v>654</v>
-      </c>
-      <c r="N131" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16">
-      <c r="A133" s="7" t="s">
-        <v>3133</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>2438</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>2439</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I133" s="8" t="s">
-        <v>3035</v>
-      </c>
-      <c r="J133" s="8" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K133" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L133" t="s">
-        <v>18</v>
-      </c>
-      <c r="M133" t="s">
-        <v>1283</v>
-      </c>
-      <c r="N133" t="s">
+      <c r="N130" t="s">
         <v>29</v>
       </c>
     </row>
@@ -54502,112 +54426,108 @@
     <hyperlink ref="B26" r:id="rId26"/>
     <hyperlink ref="A28" r:id="rId27"/>
     <hyperlink ref="B28" r:id="rId28"/>
-    <hyperlink ref="A29" r:id="rId29"/>
-    <hyperlink ref="B29" r:id="rId30"/>
-    <hyperlink ref="A31" r:id="rId31"/>
-    <hyperlink ref="B31" r:id="rId32"/>
-    <hyperlink ref="A33" r:id="rId33"/>
-    <hyperlink ref="B33" r:id="rId34"/>
-    <hyperlink ref="A35" r:id="rId35"/>
-    <hyperlink ref="B35" r:id="rId36"/>
-    <hyperlink ref="A37" r:id="rId37"/>
-    <hyperlink ref="B37" r:id="rId38"/>
-    <hyperlink ref="A39" r:id="rId39"/>
-    <hyperlink ref="B39" r:id="rId40"/>
-    <hyperlink ref="A41" r:id="rId41"/>
-    <hyperlink ref="B41" r:id="rId42"/>
-    <hyperlink ref="A43" r:id="rId43"/>
-    <hyperlink ref="B43" r:id="rId44"/>
-    <hyperlink ref="A45" r:id="rId45"/>
-    <hyperlink ref="B45" r:id="rId46"/>
-    <hyperlink ref="A47" r:id="rId47"/>
-    <hyperlink ref="B47" r:id="rId48"/>
-    <hyperlink ref="A49" r:id="rId49"/>
-    <hyperlink ref="B49" r:id="rId50"/>
-    <hyperlink ref="A51" r:id="rId51"/>
-    <hyperlink ref="B51" r:id="rId52"/>
-    <hyperlink ref="A53" r:id="rId53"/>
-    <hyperlink ref="B53" r:id="rId54"/>
-    <hyperlink ref="A55" r:id="rId55"/>
-    <hyperlink ref="B55" r:id="rId56"/>
-    <hyperlink ref="A57" r:id="rId57"/>
-    <hyperlink ref="B57" r:id="rId58"/>
-    <hyperlink ref="A59" r:id="rId59"/>
-    <hyperlink ref="B59" r:id="rId60"/>
-    <hyperlink ref="A61" r:id="rId61"/>
-    <hyperlink ref="B61" r:id="rId62"/>
-    <hyperlink ref="A63" r:id="rId63"/>
-    <hyperlink ref="B63" r:id="rId64"/>
-    <hyperlink ref="A65" r:id="rId65"/>
-    <hyperlink ref="B65" r:id="rId66"/>
-    <hyperlink ref="A67" r:id="rId67"/>
-    <hyperlink ref="B67" r:id="rId68"/>
-    <hyperlink ref="A69" r:id="rId69"/>
-    <hyperlink ref="B69" r:id="rId70"/>
-    <hyperlink ref="A71" r:id="rId71"/>
-    <hyperlink ref="B71" r:id="rId72"/>
-    <hyperlink ref="A73" r:id="rId73"/>
-    <hyperlink ref="B73" r:id="rId74"/>
-    <hyperlink ref="A75" r:id="rId75"/>
-    <hyperlink ref="B75" r:id="rId76"/>
-    <hyperlink ref="A77" r:id="rId77"/>
-    <hyperlink ref="B77" r:id="rId78"/>
-    <hyperlink ref="A79" r:id="rId79"/>
-    <hyperlink ref="B79" r:id="rId80"/>
-    <hyperlink ref="A81" r:id="rId81"/>
-    <hyperlink ref="B81" r:id="rId82"/>
-    <hyperlink ref="A83" r:id="rId83"/>
-    <hyperlink ref="B83" r:id="rId84"/>
-    <hyperlink ref="A85" r:id="rId85"/>
-    <hyperlink ref="B85" r:id="rId86"/>
-    <hyperlink ref="A87" r:id="rId87"/>
-    <hyperlink ref="B87" r:id="rId88"/>
-    <hyperlink ref="A89" r:id="rId89"/>
-    <hyperlink ref="B89" r:id="rId90"/>
-    <hyperlink ref="A91" r:id="rId91"/>
-    <hyperlink ref="B91" r:id="rId92"/>
-    <hyperlink ref="A93" r:id="rId93"/>
-    <hyperlink ref="B93" r:id="rId94"/>
-    <hyperlink ref="A95" r:id="rId95"/>
-    <hyperlink ref="B95" r:id="rId96"/>
-    <hyperlink ref="A97" r:id="rId97"/>
-    <hyperlink ref="B97" r:id="rId98"/>
-    <hyperlink ref="A99" r:id="rId99"/>
-    <hyperlink ref="B99" r:id="rId100"/>
-    <hyperlink ref="A101" r:id="rId101"/>
-    <hyperlink ref="B101" r:id="rId102"/>
-    <hyperlink ref="A103" r:id="rId103"/>
-    <hyperlink ref="B103" r:id="rId104"/>
-    <hyperlink ref="A105" r:id="rId105"/>
-    <hyperlink ref="B105" r:id="rId106"/>
-    <hyperlink ref="A107" r:id="rId107"/>
-    <hyperlink ref="B107" r:id="rId108"/>
-    <hyperlink ref="A109" r:id="rId109"/>
-    <hyperlink ref="B109" r:id="rId110"/>
-    <hyperlink ref="A111" r:id="rId111"/>
-    <hyperlink ref="B111" r:id="rId112"/>
-    <hyperlink ref="A113" r:id="rId113"/>
-    <hyperlink ref="B113" r:id="rId114"/>
-    <hyperlink ref="A115" r:id="rId115"/>
-    <hyperlink ref="B115" r:id="rId116"/>
-    <hyperlink ref="A117" r:id="rId117"/>
-    <hyperlink ref="B117" r:id="rId118"/>
-    <hyperlink ref="A119" r:id="rId119"/>
-    <hyperlink ref="B119" r:id="rId120"/>
-    <hyperlink ref="A121" r:id="rId121"/>
-    <hyperlink ref="B121" r:id="rId122"/>
-    <hyperlink ref="A123" r:id="rId123"/>
-    <hyperlink ref="B123" r:id="rId124"/>
-    <hyperlink ref="A125" r:id="rId125"/>
-    <hyperlink ref="B125" r:id="rId126"/>
-    <hyperlink ref="A127" r:id="rId127"/>
-    <hyperlink ref="B127" r:id="rId128"/>
-    <hyperlink ref="A129" r:id="rId129"/>
-    <hyperlink ref="B129" r:id="rId130"/>
-    <hyperlink ref="A131" r:id="rId131"/>
-    <hyperlink ref="B131" r:id="rId132"/>
-    <hyperlink ref="A133" r:id="rId133"/>
-    <hyperlink ref="B133" r:id="rId134"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="B30" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="B32" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="B34" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="B36" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="B38" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="B40" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="B42" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="B44" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="B46" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="B48" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="B50" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="B52" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="B54" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="B56" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="B58" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="B60" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="B62" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="B64" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="B66" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="B68" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="B70" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="B72" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="B74" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="B76" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="B78" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="B80" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="B82" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="B84" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="B86" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="B88" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="B90" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="B92" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="B94" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="B96" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="B98" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="B100" r:id="rId100"/>
+    <hyperlink ref="A102" r:id="rId101"/>
+    <hyperlink ref="B102" r:id="rId102"/>
+    <hyperlink ref="A104" r:id="rId103"/>
+    <hyperlink ref="B104" r:id="rId104"/>
+    <hyperlink ref="A106" r:id="rId105"/>
+    <hyperlink ref="B106" r:id="rId106"/>
+    <hyperlink ref="A108" r:id="rId107"/>
+    <hyperlink ref="B108" r:id="rId108"/>
+    <hyperlink ref="A110" r:id="rId109"/>
+    <hyperlink ref="B110" r:id="rId110"/>
+    <hyperlink ref="A112" r:id="rId111"/>
+    <hyperlink ref="B112" r:id="rId112"/>
+    <hyperlink ref="A114" r:id="rId113"/>
+    <hyperlink ref="B114" r:id="rId114"/>
+    <hyperlink ref="A116" r:id="rId115"/>
+    <hyperlink ref="B116" r:id="rId116"/>
+    <hyperlink ref="A118" r:id="rId117"/>
+    <hyperlink ref="B118" r:id="rId118"/>
+    <hyperlink ref="A120" r:id="rId119"/>
+    <hyperlink ref="B120" r:id="rId120"/>
+    <hyperlink ref="A122" r:id="rId121"/>
+    <hyperlink ref="B122" r:id="rId122"/>
+    <hyperlink ref="A124" r:id="rId123"/>
+    <hyperlink ref="B124" r:id="rId124"/>
+    <hyperlink ref="A126" r:id="rId125"/>
+    <hyperlink ref="B126" r:id="rId126"/>
+    <hyperlink ref="A128" r:id="rId127"/>
+    <hyperlink ref="B128" r:id="rId128"/>
+    <hyperlink ref="A130" r:id="rId129"/>
+    <hyperlink ref="B130" r:id="rId130"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54621,7 +54541,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -54688,7 +54608,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>3134</v>
+        <v>3128</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2498</v>
@@ -54712,16 +54632,16 @@
         <v>157</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K2" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>3137</v>
+        <v>3131</v>
       </c>
       <c r="N2" t="s">
         <v>813</v>
@@ -54729,7 +54649,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>3138</v>
+        <v>3132</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2570</v>
@@ -54753,10 +54673,10 @@
         <v>157</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K4" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
@@ -54770,7 +54690,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>3139</v>
+        <v>3133</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>2585</v>
@@ -54794,16 +54714,16 @@
         <v>157</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K6" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>3140</v>
+        <v>3134</v>
       </c>
       <c r="N6" t="s">
         <v>825</v>
@@ -54811,7 +54731,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>3141</v>
+        <v>3135</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>2579</v>
@@ -54835,16 +54755,16 @@
         <v>157</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K8" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>3140</v>
+        <v>3134</v>
       </c>
       <c r="N8" t="s">
         <v>825</v>
@@ -54852,7 +54772,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>3142</v>
+        <v>3136</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2610</v>
@@ -54876,10 +54796,10 @@
         <v>157</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K10" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
@@ -54893,7 +54813,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
-        <v>3143</v>
+        <v>3137</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>2615</v>
@@ -54917,10 +54837,10 @@
         <v>157</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K12" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
@@ -54934,16 +54854,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
-        <v>3144</v>
+        <v>3138</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3145</v>
+        <v>3139</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>3146</v>
+        <v>3140</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>3147</v>
+        <v>3141</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>156</v>
@@ -54958,10 +54878,10 @@
         <v>157</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K14" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -54975,7 +54895,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
-        <v>3148</v>
+        <v>3142</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>2709</v>
@@ -54999,10 +54919,10 @@
         <v>157</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K16" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -55016,7 +54936,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="7" t="s">
-        <v>3149</v>
+        <v>3143</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>2766</v>
@@ -55040,10 +54960,10 @@
         <v>157</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K18" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L18" t="s">
         <v>98</v>
@@ -55055,12 +54975,12 @@
         <v>200</v>
       </c>
       <c r="P18" t="s">
-        <v>3150</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="7" t="s">
-        <v>3151</v>
+        <v>3145</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>2770</v>
@@ -55084,16 +55004,16 @@
         <v>157</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K20" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L20" t="s">
         <v>98</v>
       </c>
       <c r="M20" t="s">
-        <v>3152</v>
+        <v>3146</v>
       </c>
       <c r="N20" t="s">
         <v>182</v>
@@ -55104,7 +55024,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="7" t="s">
-        <v>3153</v>
+        <v>3147</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>2850</v>
@@ -55128,10 +55048,10 @@
         <v>157</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K22" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L22" t="s">
         <v>18</v>
@@ -55145,7 +55065,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="7" t="s">
-        <v>3154</v>
+        <v>3148</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>2878</v>
@@ -55169,16 +55089,16 @@
         <v>157</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K24" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L24" t="s">
         <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>3155</v>
+        <v>3149</v>
       </c>
       <c r="N24" t="s">
         <v>182</v>
@@ -55186,7 +55106,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="7" t="s">
-        <v>3156</v>
+        <v>3150</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>2887</v>
@@ -55210,10 +55130,10 @@
         <v>157</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K26" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L26" t="s">
         <v>18</v>
@@ -55227,7 +55147,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="7" t="s">
-        <v>3157</v>
+        <v>3151</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>2942</v>
@@ -55251,10 +55171,10 @@
         <v>157</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K28" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L28" t="s">
         <v>18</v>
@@ -55268,7 +55188,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="7" t="s">
-        <v>3158</v>
+        <v>3152</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>2950</v>
@@ -55292,10 +55212,10 @@
         <v>157</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K30" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L30" t="s">
         <v>18</v>
@@ -55309,7 +55229,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="7" t="s">
-        <v>3159</v>
+        <v>3153</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>2954</v>
@@ -55333,16 +55253,16 @@
         <v>157</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K32" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L32" t="s">
         <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>3160</v>
+        <v>3154</v>
       </c>
       <c r="N32" t="s">
         <v>1002</v>
@@ -55350,7 +55270,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="7" t="s">
-        <v>3161</v>
+        <v>3155</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>2977</v>
@@ -55374,27 +55294,27 @@
         <v>157</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K34" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L34" t="s">
         <v>98</v>
       </c>
       <c r="M34" t="s">
-        <v>3162</v>
+        <v>3156</v>
       </c>
       <c r="N34" t="s">
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>3163</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="7" t="s">
-        <v>3164</v>
+        <v>3158</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>2991</v>
@@ -55418,10 +55338,10 @@
         <v>157</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K36" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L36" t="s">
         <v>18</v>
@@ -55435,7 +55355,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="7" t="s">
-        <v>3165</v>
+        <v>3159</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>3007</v>
@@ -55459,10 +55379,10 @@
         <v>157</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="K38" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
       <c r="L38" t="s">
         <v>98</v>
